--- a/titlePilotStudy/data/SRP.xlsx
+++ b/titlePilotStudy/data/SRP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="195">
   <si>
     <t>Identifier</t>
   </si>
@@ -586,12 +586,6 @@
   </si>
   <si>
     <t>Секулић, Исидора (1877-1958)</t>
-  </si>
-  <si>
-    <t>SRP19191</t>
-  </si>
-  <si>
-    <t>Брђани</t>
   </si>
   <si>
     <t>SRP19192</t>
@@ -1029,12 +1023,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM322"/>
+  <dimension ref="A1:AM321"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2"/>
+      <selection pane="bottomLeft" activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3348,10 +3342,10 @@
         <v>41</v>
       </c>
       <c r="C44" s="15">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D44" s="15">
-        <v>22904</v>
+        <v>38705</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>42</v>
@@ -3398,22 +3392,22 @@
         <v>41</v>
       </c>
       <c r="C45" s="15">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D45" s="15">
-        <v>38705</v>
+        <v>17942</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="I45" s="15" t="s">
         <v>46</v>
@@ -3440,37 +3434,17 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46" spans="1:28" ht="72" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="15">
-        <v>120</v>
-      </c>
-      <c r="D46" s="15">
-        <v>17942</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>57</v>
-      </c>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -4841,34 +4815,34 @@
       <c r="AB91" s="2"/>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A92" s="8"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
       <c r="D92"/>
       <c r="E92"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
-      <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
-      <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
-      <c r="Z92" s="2"/>
-      <c r="AA92" s="2"/>
-      <c r="AB92" s="2"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
@@ -5080,7 +5054,7 @@
       <c r="AA99" s="3"/>
       <c r="AB99" s="3"/>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5093,7 +5067,7 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
+      <c r="M100" s="6"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
@@ -5110,7 +5084,7 @@
       <c r="AA100" s="3"/>
       <c r="AB100" s="3"/>
     </row>
-    <row r="101" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101" s="9"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5123,7 +5097,7 @@
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
-      <c r="M101" s="6"/>
+      <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
@@ -7271,34 +7245,34 @@
       <c r="AB172" s="3"/>
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A173" s="9"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
+      <c r="A173" s="8"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
       <c r="D173"/>
       <c r="E173"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3"/>
-      <c r="L173" s="3"/>
-      <c r="M173" s="3"/>
-      <c r="N173" s="3"/>
-      <c r="O173" s="3"/>
-      <c r="P173" s="3"/>
-      <c r="Q173" s="3"/>
-      <c r="R173" s="3"/>
-      <c r="S173" s="3"/>
-      <c r="T173" s="3"/>
-      <c r="U173" s="3"/>
-      <c r="V173" s="3"/>
-      <c r="W173" s="3"/>
-      <c r="X173" s="3"/>
-      <c r="Y173" s="3"/>
-      <c r="Z173" s="3"/>
-      <c r="AA173" s="3"/>
-      <c r="AB173" s="3"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
+      <c r="R173" s="4"/>
+      <c r="S173" s="4"/>
+      <c r="T173" s="4"/>
+      <c r="U173" s="4"/>
+      <c r="V173" s="4"/>
+      <c r="W173" s="4"/>
+      <c r="X173" s="4"/>
+      <c r="Y173" s="4"/>
+      <c r="Z173" s="4"/>
+      <c r="AA173" s="4"/>
+      <c r="AB173" s="4"/>
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A174" s="8"/>
@@ -7358,7 +7332,7 @@
       <c r="Y175" s="4"/>
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
-      <c r="AB175" s="4"/>
+      <c r="AB175" s="5"/>
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A176" s="8"/>
@@ -7388,7 +7362,7 @@
       <c r="Y176" s="4"/>
       <c r="Z176" s="4"/>
       <c r="AA176" s="4"/>
-      <c r="AB176" s="5"/>
+      <c r="AB176" s="4"/>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A177" s="8"/>
@@ -7521,7 +7495,7 @@
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
-      <c r="K181" s="4"/>
+      <c r="K181" s="2"/>
       <c r="L181" s="4"/>
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
@@ -7611,7 +7585,7 @@
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
-      <c r="K184" s="2"/>
+      <c r="K184" s="4"/>
       <c r="L184" s="4"/>
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
@@ -8291,34 +8265,34 @@
       <c r="AB206" s="4"/>
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A207" s="8"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
+      <c r="A207" s="9"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
       <c r="D207"/>
       <c r="E207"/>
-      <c r="F207" s="4"/>
-      <c r="G207" s="4"/>
-      <c r="H207" s="4"/>
-      <c r="I207" s="4"/>
-      <c r="J207" s="4"/>
-      <c r="K207" s="4"/>
-      <c r="L207" s="4"/>
-      <c r="M207" s="4"/>
-      <c r="N207" s="4"/>
-      <c r="O207" s="4"/>
-      <c r="P207" s="4"/>
-      <c r="Q207" s="4"/>
-      <c r="R207" s="4"/>
-      <c r="S207" s="4"/>
-      <c r="T207" s="4"/>
-      <c r="U207" s="4"/>
-      <c r="V207" s="4"/>
-      <c r="W207" s="4"/>
-      <c r="X207" s="4"/>
-      <c r="Y207" s="4"/>
-      <c r="Z207" s="4"/>
-      <c r="AA207" s="4"/>
-      <c r="AB207" s="4"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="3"/>
+      <c r="K207" s="3"/>
+      <c r="L207" s="3"/>
+      <c r="M207" s="3"/>
+      <c r="N207" s="3"/>
+      <c r="O207" s="3"/>
+      <c r="P207" s="3"/>
+      <c r="Q207" s="3"/>
+      <c r="R207" s="3"/>
+      <c r="S207" s="3"/>
+      <c r="T207" s="3"/>
+      <c r="U207" s="3"/>
+      <c r="V207" s="3"/>
+      <c r="W207" s="3"/>
+      <c r="X207" s="3"/>
+      <c r="Y207" s="3"/>
+      <c r="Z207" s="3"/>
+      <c r="AA207" s="3"/>
+      <c r="AB207" s="3"/>
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A208" s="9"/>
@@ -10361,34 +10335,34 @@
       <c r="AB275" s="3"/>
     </row>
     <row r="276" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A276" s="9"/>
-      <c r="B276" s="3"/>
-      <c r="C276" s="3"/>
+      <c r="A276" s="8"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="4"/>
       <c r="D276"/>
       <c r="E276"/>
-      <c r="F276" s="3"/>
-      <c r="G276" s="3"/>
-      <c r="H276" s="3"/>
-      <c r="I276" s="3"/>
-      <c r="J276" s="3"/>
-      <c r="K276" s="3"/>
-      <c r="L276" s="3"/>
-      <c r="M276" s="3"/>
-      <c r="N276" s="3"/>
-      <c r="O276" s="3"/>
-      <c r="P276" s="3"/>
-      <c r="Q276" s="3"/>
-      <c r="R276" s="3"/>
-      <c r="S276" s="3"/>
-      <c r="T276" s="3"/>
-      <c r="U276" s="3"/>
-      <c r="V276" s="3"/>
-      <c r="W276" s="3"/>
-      <c r="X276" s="3"/>
-      <c r="Y276" s="3"/>
-      <c r="Z276" s="3"/>
-      <c r="AA276" s="3"/>
-      <c r="AB276" s="3"/>
+      <c r="F276" s="4"/>
+      <c r="G276" s="4"/>
+      <c r="H276" s="4"/>
+      <c r="I276" s="4"/>
+      <c r="J276" s="4"/>
+      <c r="K276" s="4"/>
+      <c r="L276" s="4"/>
+      <c r="M276" s="4"/>
+      <c r="N276" s="4"/>
+      <c r="O276" s="4"/>
+      <c r="P276" s="4"/>
+      <c r="Q276" s="4"/>
+      <c r="R276" s="4"/>
+      <c r="S276" s="4"/>
+      <c r="T276" s="4"/>
+      <c r="U276" s="4"/>
+      <c r="V276" s="4"/>
+      <c r="W276" s="4"/>
+      <c r="X276" s="4"/>
+      <c r="Y276" s="4"/>
+      <c r="Z276" s="4"/>
+      <c r="AA276" s="4"/>
+      <c r="AB276" s="4"/>
     </row>
     <row r="277" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A277" s="8"/>
@@ -10396,7 +10370,7 @@
       <c r="C277" s="4"/>
       <c r="D277"/>
       <c r="E277"/>
-      <c r="F277" s="4"/>
+      <c r="F277" s="7"/>
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
@@ -10456,7 +10430,7 @@
       <c r="C279" s="4"/>
       <c r="D279"/>
       <c r="E279"/>
-      <c r="F279" s="7"/>
+      <c r="F279" s="4"/>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
       <c r="I279" s="4"/>
@@ -10620,7 +10594,7 @@
       <c r="Q284" s="4"/>
       <c r="R284" s="4"/>
       <c r="S284" s="4"/>
-      <c r="T284" s="4"/>
+      <c r="T284" s="2"/>
       <c r="U284" s="4"/>
       <c r="V284" s="4"/>
       <c r="W284" s="4"/>
@@ -10650,7 +10624,7 @@
       <c r="Q285" s="4"/>
       <c r="R285" s="4"/>
       <c r="S285" s="4"/>
-      <c r="T285" s="2"/>
+      <c r="T285" s="4"/>
       <c r="U285" s="4"/>
       <c r="V285" s="4"/>
       <c r="W285" s="4"/>
@@ -10710,9 +10684,9 @@
       <c r="Q287" s="4"/>
       <c r="R287" s="4"/>
       <c r="S287" s="4"/>
-      <c r="T287" s="4"/>
+      <c r="T287" s="2"/>
       <c r="U287" s="4"/>
-      <c r="V287" s="4"/>
+      <c r="V287" s="7"/>
       <c r="W287" s="4"/>
       <c r="X287" s="4"/>
       <c r="Y287" s="4"/>
@@ -10740,9 +10714,9 @@
       <c r="Q288" s="4"/>
       <c r="R288" s="4"/>
       <c r="S288" s="4"/>
-      <c r="T288" s="2"/>
+      <c r="T288" s="4"/>
       <c r="U288" s="4"/>
-      <c r="V288" s="7"/>
+      <c r="V288" s="4"/>
       <c r="W288" s="4"/>
       <c r="X288" s="4"/>
       <c r="Y288" s="4"/>
@@ -10858,8 +10832,8 @@
       <c r="O292" s="4"/>
       <c r="P292" s="4"/>
       <c r="Q292" s="4"/>
-      <c r="R292" s="4"/>
-      <c r="S292" s="4"/>
+      <c r="R292" s="2"/>
+      <c r="S292" s="2"/>
       <c r="T292" s="4"/>
       <c r="U292" s="4"/>
       <c r="V292" s="4"/>
@@ -10888,8 +10862,8 @@
       <c r="O293" s="4"/>
       <c r="P293" s="4"/>
       <c r="Q293" s="4"/>
-      <c r="R293" s="2"/>
-      <c r="S293" s="2"/>
+      <c r="R293" s="4"/>
+      <c r="S293" s="4"/>
       <c r="T293" s="4"/>
       <c r="U293" s="4"/>
       <c r="V293" s="4"/>
@@ -10948,8 +10922,8 @@
       <c r="O295" s="4"/>
       <c r="P295" s="4"/>
       <c r="Q295" s="4"/>
-      <c r="R295" s="4"/>
-      <c r="S295" s="4"/>
+      <c r="R295" s="2"/>
+      <c r="S295" s="2"/>
       <c r="T295" s="4"/>
       <c r="U295" s="4"/>
       <c r="V295" s="4"/>
@@ -10978,8 +10952,8 @@
       <c r="O296" s="4"/>
       <c r="P296" s="4"/>
       <c r="Q296" s="4"/>
-      <c r="R296" s="2"/>
-      <c r="S296" s="2"/>
+      <c r="R296" s="4"/>
+      <c r="S296" s="4"/>
       <c r="T296" s="4"/>
       <c r="U296" s="4"/>
       <c r="V296" s="4"/>
@@ -11067,7 +11041,7 @@
       <c r="N299" s="4"/>
       <c r="O299" s="4"/>
       <c r="P299" s="4"/>
-      <c r="Q299" s="4"/>
+      <c r="Q299" s="2"/>
       <c r="R299" s="4"/>
       <c r="S299" s="4"/>
       <c r="T299" s="4"/>
@@ -11097,7 +11071,7 @@
       <c r="N300" s="4"/>
       <c r="O300" s="4"/>
       <c r="P300" s="4"/>
-      <c r="Q300" s="2"/>
+      <c r="Q300" s="4"/>
       <c r="R300" s="4"/>
       <c r="S300" s="4"/>
       <c r="T300" s="4"/>
@@ -11190,7 +11164,7 @@
       <c r="Q303" s="4"/>
       <c r="R303" s="4"/>
       <c r="S303" s="4"/>
-      <c r="T303" s="4"/>
+      <c r="T303" s="2"/>
       <c r="U303" s="4"/>
       <c r="V303" s="4"/>
       <c r="W303" s="4"/>
@@ -11218,9 +11192,9 @@
       <c r="O304" s="4"/>
       <c r="P304" s="4"/>
       <c r="Q304" s="4"/>
-      <c r="R304" s="4"/>
-      <c r="S304" s="4"/>
-      <c r="T304" s="2"/>
+      <c r="R304" s="2"/>
+      <c r="S304" s="2"/>
+      <c r="T304" s="4"/>
       <c r="U304" s="4"/>
       <c r="V304" s="4"/>
       <c r="W304" s="4"/>
@@ -11236,7 +11210,7 @@
       <c r="C305" s="4"/>
       <c r="D305"/>
       <c r="E305"/>
-      <c r="F305" s="4"/>
+      <c r="F305" s="7"/>
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
       <c r="I305" s="4"/>
@@ -11248,9 +11222,9 @@
       <c r="O305" s="4"/>
       <c r="P305" s="4"/>
       <c r="Q305" s="4"/>
-      <c r="R305" s="2"/>
-      <c r="S305" s="2"/>
-      <c r="T305" s="4"/>
+      <c r="R305" s="4"/>
+      <c r="S305" s="4"/>
+      <c r="T305" s="2"/>
       <c r="U305" s="4"/>
       <c r="V305" s="4"/>
       <c r="W305" s="4"/>
@@ -11266,7 +11240,7 @@
       <c r="C306" s="4"/>
       <c r="D306"/>
       <c r="E306"/>
-      <c r="F306" s="7"/>
+      <c r="F306" s="4"/>
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
@@ -11280,7 +11254,7 @@
       <c r="Q306" s="4"/>
       <c r="R306" s="4"/>
       <c r="S306" s="4"/>
-      <c r="T306" s="2"/>
+      <c r="T306" s="4"/>
       <c r="U306" s="4"/>
       <c r="V306" s="4"/>
       <c r="W306" s="4"/>
@@ -11541,7 +11515,7 @@
       <c r="H315" s="4"/>
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
-      <c r="K315" s="4"/>
+      <c r="K315" s="2"/>
       <c r="L315" s="4"/>
       <c r="M315" s="4"/>
       <c r="N315" s="4"/>
@@ -11631,7 +11605,7 @@
       <c r="H318" s="4"/>
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
-      <c r="K318" s="2"/>
+      <c r="K318" s="4"/>
       <c r="L318" s="4"/>
       <c r="M318" s="4"/>
       <c r="N318" s="4"/>
@@ -11740,51 +11714,21 @@
       <c r="AA321" s="4"/>
       <c r="AB321" s="4"/>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A322" s="8"/>
-      <c r="B322" s="4"/>
-      <c r="C322" s="4"/>
-      <c r="D322"/>
-      <c r="E322"/>
-      <c r="F322" s="4"/>
-      <c r="G322" s="4"/>
-      <c r="H322" s="4"/>
-      <c r="I322" s="4"/>
-      <c r="J322" s="4"/>
-      <c r="K322" s="4"/>
-      <c r="L322" s="4"/>
-      <c r="M322" s="4"/>
-      <c r="N322" s="4"/>
-      <c r="O322" s="4"/>
-      <c r="P322" s="4"/>
-      <c r="Q322" s="4"/>
-      <c r="R322" s="4"/>
-      <c r="S322" s="4"/>
-      <c r="T322" s="4"/>
-      <c r="U322" s="4"/>
-      <c r="V322" s="4"/>
-      <c r="W322" s="4"/>
-      <c r="X322" s="4"/>
-      <c r="Y322" s="4"/>
-      <c r="Z322" s="4"/>
-      <c r="AA322" s="4"/>
-      <c r="AB322" s="4"/>
-    </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R322 O1:O322 M1:M322 K1:K241 X3:Y322 K277:K322 X1:Y1 AA1:AA322 X2:Y2 V2 AB2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K276:K321 V2 AB2 AA1:AA321 X1:Y321 K1:K240 M1:M321 O1:O321 R1:R321">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576">
       <formula1>"one,more,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC1048576 AE1:AE1048576 AG1:AG1048576 AI1:AI1048576 AK1:AK1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK1:AK1048576 AI1:AI1048576 AG1:AG1048576 AE1:AE1048576 AC1:AC1048576">
       <formula1>"existence,possessor,possessum,patient,location,agens,attribute,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1:AL1048576 AJ1:AJ1048576 AH1:AH1048576 AF1:AF1048576 AD1:AD1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD1048576 AF1:AF1048576 AH1:AH1048576 AJ1:AJ1048576 AL1:AL1048576">
       <formula1>"head,apposition,pregen,postgen,prepmod,adjective,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576 S1:S1048576 W1:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576 S1:S1048576 N1:N1048576">
       <formula1>"def,indef,no,na"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
@@ -11837,11 +11781,10 @@
     <hyperlink ref="A41" r:id="rId40" display="https://distantreading.github.io/ELTeC/srp/SRP19140.html"/>
     <hyperlink ref="A42" r:id="rId41" display="https://distantreading.github.io/ELTeC/srp/SRP19180.html"/>
     <hyperlink ref="A43" r:id="rId42" display="https://distantreading.github.io/ELTeC/srp/SRP19190.html"/>
-    <hyperlink ref="A44" r:id="rId43" display="https://distantreading.github.io/ELTeC/srp/SRP19191.html"/>
-    <hyperlink ref="A45" r:id="rId44" display="https://distantreading.github.io/ELTeC/srp/SRP19192.html"/>
-    <hyperlink ref="A46" r:id="rId45" display="https://distantreading.github.io/ELTeC/srp/SRP19200.html"/>
+    <hyperlink ref="A44" r:id="rId43" display="https://distantreading.github.io/ELTeC/srp/SRP19192.html"/>
+    <hyperlink ref="A45" r:id="rId44" display="https://distantreading.github.io/ELTeC/srp/SRP19200.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId45"/>
 </worksheet>
 </file>
--- a/titlePilotStudy/data/SRP.xlsx
+++ b/titlePilotStudy/data/SRP.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C586250C-99D5-45C6-BC6D-ED5102A5A73A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$BO$326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$BO$325</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1748,7 +1747,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1971,8 +1970,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2249,16 +2248,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO326"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BO325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="10"/>
     <col min="2" max="3" width="8.88671875" style="1"/>
@@ -11780,243 +11779,243 @@
         <v>385</v>
       </c>
     </row>
-    <row r="51" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
-      <c r="AH51" s="2"/>
-      <c r="AI51" s="2"/>
-      <c r="AJ51" s="2"/>
-      <c r="AK51" s="2"/>
-      <c r="AL51" s="2"/>
-      <c r="AM51" s="2"/>
+    <row r="51" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="15">
+        <v>71</v>
+      </c>
+      <c r="D51" s="15">
+        <v>12658</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="15">
+        <v>1893</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM51" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="AN51" s="2"/>
       <c r="AO51" s="2"/>
       <c r="AP51" s="2"/>
       <c r="AQ51" s="2"/>
-      <c r="AR51" s="2"/>
-      <c r="AS51" s="2"/>
-      <c r="AT51" s="2"/>
-      <c r="AU51" s="2"/>
-    </row>
-    <row r="52" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="15">
-        <v>71</v>
-      </c>
-      <c r="D52" s="15">
-        <v>12658</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="15">
-        <v>1893</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J52" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K52" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF52" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG52" s="2" t="s">
+      <c r="AR51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD51" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BE51" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BG51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH51" s="3"/>
+      <c r="BI51" s="3"/>
+      <c r="BJ51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BK51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL51" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="AH52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI52" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM52" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="BM51" s="3"/>
+      <c r="BN51" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BO51" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2"/>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
       <c r="AO52" s="2"/>
       <c r="AP52" s="2"/>
       <c r="AQ52" s="2"/>
-      <c r="AR52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AT52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BB52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD52" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BE52" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BF52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BG52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH52" s="3"/>
-      <c r="BI52" s="3"/>
-      <c r="BJ52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL52" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="BM52" s="3"/>
-      <c r="BN52" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BO52" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="AR52" s="2"/>
+      <c r="AS52" s="2"/>
+      <c r="AT52" s="2"/>
+      <c r="AU52" s="2"/>
     </row>
     <row r="53" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
@@ -14126,53 +14125,53 @@
       <c r="AU95" s="2"/>
     </row>
     <row r="96" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A96" s="8"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
       <c r="D96"/>
       <c r="E96"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
-      <c r="U96" s="2"/>
-      <c r="V96" s="2"/>
-      <c r="W96" s="2"/>
-      <c r="X96" s="2"/>
-      <c r="Y96" s="2"/>
-      <c r="Z96" s="2"/>
-      <c r="AA96" s="2"/>
-      <c r="AB96" s="2"/>
-      <c r="AC96" s="2"/>
-      <c r="AD96" s="2"/>
-      <c r="AE96" s="2"/>
-      <c r="AF96" s="2"/>
-      <c r="AG96" s="2"/>
-      <c r="AH96" s="2"/>
-      <c r="AI96" s="2"/>
-      <c r="AJ96" s="2"/>
-      <c r="AK96" s="2"/>
-      <c r="AL96" s="2"/>
-      <c r="AM96" s="2"/>
-      <c r="AN96" s="2"/>
-      <c r="AO96" s="2"/>
-      <c r="AP96" s="2"/>
-      <c r="AQ96" s="2"/>
-      <c r="AR96" s="2"/>
-      <c r="AS96" s="2"/>
-      <c r="AT96" s="2"/>
-      <c r="AU96" s="2"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="3"/>
+      <c r="AB96" s="3"/>
+      <c r="AC96" s="3"/>
+      <c r="AD96" s="3"/>
+      <c r="AE96" s="3"/>
+      <c r="AF96" s="3"/>
+      <c r="AG96" s="3"/>
+      <c r="AH96" s="3"/>
+      <c r="AI96" s="3"/>
+      <c r="AJ96" s="3"/>
+      <c r="AK96" s="3"/>
+      <c r="AL96" s="3"/>
+      <c r="AM96" s="3"/>
+      <c r="AN96" s="3"/>
+      <c r="AO96" s="3"/>
+      <c r="AP96" s="3"/>
+      <c r="AQ96" s="3"/>
+      <c r="AR96" s="3"/>
+      <c r="AS96" s="3"/>
+      <c r="AT96" s="3"/>
+      <c r="AU96" s="3"/>
     </row>
     <row r="97" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
@@ -14517,7 +14516,7 @@
       <c r="AT103" s="3"/>
       <c r="AU103" s="3"/>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -14531,7 +14530,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
+      <c r="N104" s="6"/>
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
@@ -14566,7 +14565,7 @@
       <c r="AT104" s="3"/>
       <c r="AU104" s="3"/>
     </row>
-    <row r="105" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -14580,7 +14579,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
-      <c r="N105" s="6"/>
+      <c r="N105" s="3"/>
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
@@ -18095,53 +18094,53 @@
       <c r="AU176" s="3"/>
     </row>
     <row r="177" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A177" s="9"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
+      <c r="A177" s="8"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
       <c r="D177"/>
       <c r="E177"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
-      <c r="K177" s="3"/>
-      <c r="L177" s="3"/>
-      <c r="M177" s="3"/>
-      <c r="N177" s="3"/>
-      <c r="O177" s="3"/>
-      <c r="P177" s="3"/>
-      <c r="Q177" s="3"/>
-      <c r="R177" s="3"/>
-      <c r="S177" s="3"/>
-      <c r="T177" s="3"/>
-      <c r="U177" s="3"/>
-      <c r="V177" s="3"/>
-      <c r="W177" s="3"/>
-      <c r="X177" s="3"/>
-      <c r="Y177" s="3"/>
-      <c r="Z177" s="3"/>
-      <c r="AA177" s="3"/>
-      <c r="AB177" s="3"/>
-      <c r="AC177" s="3"/>
-      <c r="AD177" s="3"/>
-      <c r="AE177" s="3"/>
-      <c r="AF177" s="3"/>
-      <c r="AG177" s="3"/>
-      <c r="AH177" s="3"/>
-      <c r="AI177" s="3"/>
-      <c r="AJ177" s="3"/>
-      <c r="AK177" s="3"/>
-      <c r="AL177" s="3"/>
-      <c r="AM177" s="3"/>
-      <c r="AN177" s="3"/>
-      <c r="AO177" s="3"/>
-      <c r="AP177" s="3"/>
-      <c r="AQ177" s="3"/>
-      <c r="AR177" s="3"/>
-      <c r="AS177" s="3"/>
-      <c r="AT177" s="3"/>
-      <c r="AU177" s="3"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="4"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="4"/>
+      <c r="O177" s="4"/>
+      <c r="P177" s="4"/>
+      <c r="Q177" s="4"/>
+      <c r="R177" s="4"/>
+      <c r="S177" s="4"/>
+      <c r="T177" s="4"/>
+      <c r="U177" s="4"/>
+      <c r="V177" s="4"/>
+      <c r="W177" s="4"/>
+      <c r="X177" s="4"/>
+      <c r="Y177" s="4"/>
+      <c r="Z177" s="4"/>
+      <c r="AA177" s="4"/>
+      <c r="AB177" s="4"/>
+      <c r="AC177" s="4"/>
+      <c r="AD177" s="4"/>
+      <c r="AE177" s="4"/>
+      <c r="AF177" s="4"/>
+      <c r="AG177" s="4"/>
+      <c r="AH177" s="4"/>
+      <c r="AI177" s="4"/>
+      <c r="AJ177" s="4"/>
+      <c r="AK177" s="4"/>
+      <c r="AL177" s="4"/>
+      <c r="AM177" s="4"/>
+      <c r="AN177" s="4"/>
+      <c r="AO177" s="4"/>
+      <c r="AP177" s="4"/>
+      <c r="AQ177" s="4"/>
+      <c r="AR177" s="4"/>
+      <c r="AS177" s="4"/>
+      <c r="AT177" s="4"/>
+      <c r="AU177" s="4"/>
     </row>
     <row r="178" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A178" s="8"/>
@@ -18239,7 +18238,7 @@
       <c r="AR179" s="4"/>
       <c r="AS179" s="4"/>
       <c r="AT179" s="4"/>
-      <c r="AU179" s="4"/>
+      <c r="AU179" s="5"/>
     </row>
     <row r="180" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A180" s="8"/>
@@ -18288,7 +18287,7 @@
       <c r="AR180" s="4"/>
       <c r="AS180" s="4"/>
       <c r="AT180" s="4"/>
-      <c r="AU180" s="5"/>
+      <c r="AU180" s="4"/>
     </row>
     <row r="181" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A181" s="8"/>
@@ -18498,7 +18497,7 @@
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
-      <c r="L185" s="4"/>
+      <c r="L185" s="2"/>
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
@@ -18645,7 +18644,7 @@
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
-      <c r="L188" s="2"/>
+      <c r="L188" s="4"/>
       <c r="M188" s="4"/>
       <c r="N188" s="4"/>
       <c r="O188" s="4"/>
@@ -19761,53 +19760,53 @@
       <c r="AU210" s="4"/>
     </row>
     <row r="211" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A211" s="8"/>
-      <c r="B211" s="4"/>
-      <c r="C211" s="4"/>
+      <c r="A211" s="9"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
       <c r="D211"/>
       <c r="E211"/>
-      <c r="F211" s="4"/>
-      <c r="G211" s="4"/>
-      <c r="H211" s="4"/>
-      <c r="I211" s="4"/>
-      <c r="J211" s="4"/>
-      <c r="K211" s="4"/>
-      <c r="L211" s="4"/>
-      <c r="M211" s="4"/>
-      <c r="N211" s="4"/>
-      <c r="O211" s="4"/>
-      <c r="P211" s="4"/>
-      <c r="Q211" s="4"/>
-      <c r="R211" s="4"/>
-      <c r="S211" s="4"/>
-      <c r="T211" s="4"/>
-      <c r="U211" s="4"/>
-      <c r="V211" s="4"/>
-      <c r="W211" s="4"/>
-      <c r="X211" s="4"/>
-      <c r="Y211" s="4"/>
-      <c r="Z211" s="4"/>
-      <c r="AA211" s="4"/>
-      <c r="AB211" s="4"/>
-      <c r="AC211" s="4"/>
-      <c r="AD211" s="4"/>
-      <c r="AE211" s="4"/>
-      <c r="AF211" s="4"/>
-      <c r="AG211" s="4"/>
-      <c r="AH211" s="4"/>
-      <c r="AI211" s="4"/>
-      <c r="AJ211" s="4"/>
-      <c r="AK211" s="4"/>
-      <c r="AL211" s="4"/>
-      <c r="AM211" s="4"/>
-      <c r="AN211" s="4"/>
-      <c r="AO211" s="4"/>
-      <c r="AP211" s="4"/>
-      <c r="AQ211" s="4"/>
-      <c r="AR211" s="4"/>
-      <c r="AS211" s="4"/>
-      <c r="AT211" s="4"/>
-      <c r="AU211" s="4"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
+      <c r="K211" s="3"/>
+      <c r="L211" s="3"/>
+      <c r="M211" s="3"/>
+      <c r="N211" s="3"/>
+      <c r="O211" s="3"/>
+      <c r="P211" s="3"/>
+      <c r="Q211" s="3"/>
+      <c r="R211" s="3"/>
+      <c r="S211" s="3"/>
+      <c r="T211" s="3"/>
+      <c r="U211" s="3"/>
+      <c r="V211" s="3"/>
+      <c r="W211" s="3"/>
+      <c r="X211" s="3"/>
+      <c r="Y211" s="3"/>
+      <c r="Z211" s="3"/>
+      <c r="AA211" s="3"/>
+      <c r="AB211" s="3"/>
+      <c r="AC211" s="3"/>
+      <c r="AD211" s="3"/>
+      <c r="AE211" s="3"/>
+      <c r="AF211" s="3"/>
+      <c r="AG211" s="3"/>
+      <c r="AH211" s="3"/>
+      <c r="AI211" s="3"/>
+      <c r="AJ211" s="3"/>
+      <c r="AK211" s="3"/>
+      <c r="AL211" s="3"/>
+      <c r="AM211" s="3"/>
+      <c r="AN211" s="3"/>
+      <c r="AO211" s="3"/>
+      <c r="AP211" s="3"/>
+      <c r="AQ211" s="3"/>
+      <c r="AR211" s="3"/>
+      <c r="AS211" s="3"/>
+      <c r="AT211" s="3"/>
+      <c r="AU211" s="3"/>
     </row>
     <row r="212" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A212" s="9"/>
@@ -23142,53 +23141,53 @@
       <c r="AU279" s="3"/>
     </row>
     <row r="280" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A280" s="9"/>
-      <c r="B280" s="3"/>
-      <c r="C280" s="3"/>
+      <c r="A280" s="8"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="4"/>
       <c r="D280"/>
       <c r="E280"/>
-      <c r="F280" s="3"/>
-      <c r="G280" s="3"/>
-      <c r="H280" s="3"/>
-      <c r="I280" s="3"/>
-      <c r="J280" s="3"/>
-      <c r="K280" s="3"/>
-      <c r="L280" s="3"/>
-      <c r="M280" s="3"/>
-      <c r="N280" s="3"/>
-      <c r="O280" s="3"/>
-      <c r="P280" s="3"/>
-      <c r="Q280" s="3"/>
-      <c r="R280" s="3"/>
-      <c r="S280" s="3"/>
-      <c r="T280" s="3"/>
-      <c r="U280" s="3"/>
-      <c r="V280" s="3"/>
-      <c r="W280" s="3"/>
-      <c r="X280" s="3"/>
-      <c r="Y280" s="3"/>
-      <c r="Z280" s="3"/>
-      <c r="AA280" s="3"/>
-      <c r="AB280" s="3"/>
-      <c r="AC280" s="3"/>
-      <c r="AD280" s="3"/>
-      <c r="AE280" s="3"/>
-      <c r="AF280" s="3"/>
-      <c r="AG280" s="3"/>
-      <c r="AH280" s="3"/>
-      <c r="AI280" s="3"/>
-      <c r="AJ280" s="3"/>
-      <c r="AK280" s="3"/>
-      <c r="AL280" s="3"/>
-      <c r="AM280" s="3"/>
-      <c r="AN280" s="3"/>
-      <c r="AO280" s="3"/>
-      <c r="AP280" s="3"/>
-      <c r="AQ280" s="3"/>
-      <c r="AR280" s="3"/>
-      <c r="AS280" s="3"/>
-      <c r="AT280" s="3"/>
-      <c r="AU280" s="3"/>
+      <c r="F280" s="4"/>
+      <c r="G280" s="4"/>
+      <c r="H280" s="4"/>
+      <c r="I280" s="4"/>
+      <c r="J280" s="4"/>
+      <c r="K280" s="4"/>
+      <c r="L280" s="4"/>
+      <c r="M280" s="4"/>
+      <c r="N280" s="4"/>
+      <c r="O280" s="4"/>
+      <c r="P280" s="4"/>
+      <c r="Q280" s="4"/>
+      <c r="R280" s="4"/>
+      <c r="S280" s="4"/>
+      <c r="T280" s="4"/>
+      <c r="U280" s="4"/>
+      <c r="V280" s="4"/>
+      <c r="W280" s="4"/>
+      <c r="X280" s="4"/>
+      <c r="Y280" s="4"/>
+      <c r="Z280" s="4"/>
+      <c r="AA280" s="4"/>
+      <c r="AB280" s="4"/>
+      <c r="AC280" s="4"/>
+      <c r="AD280" s="4"/>
+      <c r="AE280" s="4"/>
+      <c r="AF280" s="4"/>
+      <c r="AG280" s="4"/>
+      <c r="AH280" s="4"/>
+      <c r="AI280" s="4"/>
+      <c r="AJ280" s="4"/>
+      <c r="AK280" s="4"/>
+      <c r="AL280" s="4"/>
+      <c r="AM280" s="4"/>
+      <c r="AN280" s="4"/>
+      <c r="AO280" s="4"/>
+      <c r="AP280" s="4"/>
+      <c r="AQ280" s="4"/>
+      <c r="AR280" s="4"/>
+      <c r="AS280" s="4"/>
+      <c r="AT280" s="4"/>
+      <c r="AU280" s="4"/>
     </row>
     <row r="281" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A281" s="8"/>
@@ -23196,8 +23195,8 @@
       <c r="C281" s="4"/>
       <c r="D281"/>
       <c r="E281"/>
-      <c r="F281" s="4"/>
-      <c r="G281" s="4"/>
+      <c r="F281" s="7"/>
+      <c r="G281" s="7"/>
       <c r="H281" s="4"/>
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
@@ -23294,8 +23293,8 @@
       <c r="C283" s="4"/>
       <c r="D283"/>
       <c r="E283"/>
-      <c r="F283" s="7"/>
-      <c r="G283" s="7"/>
+      <c r="F283" s="4"/>
+      <c r="G283" s="4"/>
       <c r="H283" s="4"/>
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
@@ -23558,13 +23557,13 @@
       <c r="V288" s="4"/>
       <c r="W288" s="4"/>
       <c r="X288" s="4"/>
-      <c r="Y288" s="4"/>
-      <c r="Z288" s="4"/>
-      <c r="AA288" s="4"/>
-      <c r="AB288" s="4"/>
-      <c r="AC288" s="4"/>
-      <c r="AD288" s="4"/>
-      <c r="AE288" s="4"/>
+      <c r="Y288" s="2"/>
+      <c r="Z288" s="2"/>
+      <c r="AA288" s="2"/>
+      <c r="AB288" s="2"/>
+      <c r="AC288" s="2"/>
+      <c r="AD288" s="2"/>
+      <c r="AE288" s="2"/>
       <c r="AF288" s="4"/>
       <c r="AG288" s="4"/>
       <c r="AH288" s="4"/>
@@ -23607,13 +23606,13 @@
       <c r="V289" s="4"/>
       <c r="W289" s="4"/>
       <c r="X289" s="4"/>
-      <c r="Y289" s="2"/>
-      <c r="Z289" s="2"/>
-      <c r="AA289" s="2"/>
-      <c r="AB289" s="2"/>
-      <c r="AC289" s="2"/>
-      <c r="AD289" s="2"/>
-      <c r="AE289" s="2"/>
+      <c r="Y289" s="4"/>
+      <c r="Z289" s="4"/>
+      <c r="AA289" s="4"/>
+      <c r="AB289" s="4"/>
+      <c r="AC289" s="4"/>
+      <c r="AD289" s="4"/>
+      <c r="AE289" s="4"/>
       <c r="AF289" s="4"/>
       <c r="AG289" s="4"/>
       <c r="AH289" s="4"/>
@@ -23705,15 +23704,15 @@
       <c r="V291" s="4"/>
       <c r="W291" s="4"/>
       <c r="X291" s="4"/>
-      <c r="Y291" s="4"/>
-      <c r="Z291" s="4"/>
-      <c r="AA291" s="4"/>
-      <c r="AB291" s="4"/>
-      <c r="AC291" s="4"/>
-      <c r="AD291" s="4"/>
-      <c r="AE291" s="4"/>
+      <c r="Y291" s="2"/>
+      <c r="Z291" s="2"/>
+      <c r="AA291" s="2"/>
+      <c r="AB291" s="2"/>
+      <c r="AC291" s="2"/>
+      <c r="AD291" s="2"/>
+      <c r="AE291" s="2"/>
       <c r="AF291" s="4"/>
-      <c r="AG291" s="4"/>
+      <c r="AG291" s="7"/>
       <c r="AH291" s="4"/>
       <c r="AI291" s="4"/>
       <c r="AJ291" s="4"/>
@@ -23754,15 +23753,15 @@
       <c r="V292" s="4"/>
       <c r="W292" s="4"/>
       <c r="X292" s="4"/>
-      <c r="Y292" s="2"/>
-      <c r="Z292" s="2"/>
-      <c r="AA292" s="2"/>
-      <c r="AB292" s="2"/>
-      <c r="AC292" s="2"/>
-      <c r="AD292" s="2"/>
-      <c r="AE292" s="2"/>
+      <c r="Y292" s="4"/>
+      <c r="Z292" s="4"/>
+      <c r="AA292" s="4"/>
+      <c r="AB292" s="4"/>
+      <c r="AC292" s="4"/>
+      <c r="AD292" s="4"/>
+      <c r="AE292" s="4"/>
       <c r="AF292" s="4"/>
-      <c r="AG292" s="7"/>
+      <c r="AG292" s="4"/>
       <c r="AH292" s="4"/>
       <c r="AI292" s="4"/>
       <c r="AJ292" s="4"/>
@@ -23948,8 +23947,8 @@
       <c r="T296" s="4"/>
       <c r="U296" s="4"/>
       <c r="V296" s="4"/>
-      <c r="W296" s="4"/>
-      <c r="X296" s="4"/>
+      <c r="W296" s="2"/>
+      <c r="X296" s="2"/>
       <c r="Y296" s="4"/>
       <c r="Z296" s="4"/>
       <c r="AA296" s="4"/>
@@ -23997,8 +23996,8 @@
       <c r="T297" s="4"/>
       <c r="U297" s="4"/>
       <c r="V297" s="4"/>
-      <c r="W297" s="2"/>
-      <c r="X297" s="2"/>
+      <c r="W297" s="4"/>
+      <c r="X297" s="4"/>
       <c r="Y297" s="4"/>
       <c r="Z297" s="4"/>
       <c r="AA297" s="4"/>
@@ -24095,8 +24094,8 @@
       <c r="T299" s="4"/>
       <c r="U299" s="4"/>
       <c r="V299" s="4"/>
-      <c r="W299" s="4"/>
-      <c r="X299" s="4"/>
+      <c r="W299" s="2"/>
+      <c r="X299" s="2"/>
       <c r="Y299" s="4"/>
       <c r="Z299" s="4"/>
       <c r="AA299" s="4"/>
@@ -24144,8 +24143,8 @@
       <c r="T300" s="4"/>
       <c r="U300" s="4"/>
       <c r="V300" s="4"/>
-      <c r="W300" s="2"/>
-      <c r="X300" s="2"/>
+      <c r="W300" s="4"/>
+      <c r="X300" s="4"/>
       <c r="Y300" s="4"/>
       <c r="Z300" s="4"/>
       <c r="AA300" s="4"/>
@@ -24290,7 +24289,7 @@
       <c r="S303" s="4"/>
       <c r="T303" s="4"/>
       <c r="U303" s="4"/>
-      <c r="V303" s="4"/>
+      <c r="V303" s="2"/>
       <c r="W303" s="4"/>
       <c r="X303" s="4"/>
       <c r="Y303" s="4"/>
@@ -24339,7 +24338,7 @@
       <c r="S304" s="4"/>
       <c r="T304" s="4"/>
       <c r="U304" s="4"/>
-      <c r="V304" s="2"/>
+      <c r="V304" s="4"/>
       <c r="W304" s="4"/>
       <c r="X304" s="4"/>
       <c r="Y304" s="4"/>
@@ -24489,13 +24488,13 @@
       <c r="V307" s="4"/>
       <c r="W307" s="4"/>
       <c r="X307" s="4"/>
-      <c r="Y307" s="4"/>
-      <c r="Z307" s="4"/>
-      <c r="AA307" s="4"/>
-      <c r="AB307" s="4"/>
-      <c r="AC307" s="4"/>
-      <c r="AD307" s="4"/>
-      <c r="AE307" s="4"/>
+      <c r="Y307" s="2"/>
+      <c r="Z307" s="2"/>
+      <c r="AA307" s="2"/>
+      <c r="AB307" s="2"/>
+      <c r="AC307" s="2"/>
+      <c r="AD307" s="2"/>
+      <c r="AE307" s="2"/>
       <c r="AF307" s="4"/>
       <c r="AG307" s="4"/>
       <c r="AH307" s="4"/>
@@ -24536,15 +24535,15 @@
       <c r="T308" s="4"/>
       <c r="U308" s="4"/>
       <c r="V308" s="4"/>
-      <c r="W308" s="4"/>
-      <c r="X308" s="4"/>
-      <c r="Y308" s="2"/>
-      <c r="Z308" s="2"/>
-      <c r="AA308" s="2"/>
-      <c r="AB308" s="2"/>
-      <c r="AC308" s="2"/>
-      <c r="AD308" s="2"/>
-      <c r="AE308" s="2"/>
+      <c r="W308" s="2"/>
+      <c r="X308" s="2"/>
+      <c r="Y308" s="4"/>
+      <c r="Z308" s="4"/>
+      <c r="AA308" s="4"/>
+      <c r="AB308" s="4"/>
+      <c r="AC308" s="4"/>
+      <c r="AD308" s="4"/>
+      <c r="AE308" s="4"/>
       <c r="AF308" s="4"/>
       <c r="AG308" s="4"/>
       <c r="AH308" s="4"/>
@@ -24568,8 +24567,8 @@
       <c r="C309" s="4"/>
       <c r="D309"/>
       <c r="E309"/>
-      <c r="F309" s="4"/>
-      <c r="G309" s="4"/>
+      <c r="F309" s="7"/>
+      <c r="G309" s="7"/>
       <c r="H309" s="4"/>
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
@@ -24585,15 +24584,15 @@
       <c r="T309" s="4"/>
       <c r="U309" s="4"/>
       <c r="V309" s="4"/>
-      <c r="W309" s="2"/>
-      <c r="X309" s="2"/>
-      <c r="Y309" s="4"/>
-      <c r="Z309" s="4"/>
-      <c r="AA309" s="4"/>
-      <c r="AB309" s="4"/>
-      <c r="AC309" s="4"/>
-      <c r="AD309" s="4"/>
-      <c r="AE309" s="4"/>
+      <c r="W309" s="4"/>
+      <c r="X309" s="4"/>
+      <c r="Y309" s="2"/>
+      <c r="Z309" s="2"/>
+      <c r="AA309" s="2"/>
+      <c r="AB309" s="2"/>
+      <c r="AC309" s="2"/>
+      <c r="AD309" s="2"/>
+      <c r="AE309" s="2"/>
       <c r="AF309" s="4"/>
       <c r="AG309" s="4"/>
       <c r="AH309" s="4"/>
@@ -24617,8 +24616,8 @@
       <c r="C310" s="4"/>
       <c r="D310"/>
       <c r="E310"/>
-      <c r="F310" s="7"/>
-      <c r="G310" s="7"/>
+      <c r="F310" s="4"/>
+      <c r="G310" s="4"/>
       <c r="H310" s="4"/>
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
@@ -24636,13 +24635,13 @@
       <c r="V310" s="4"/>
       <c r="W310" s="4"/>
       <c r="X310" s="4"/>
-      <c r="Y310" s="2"/>
-      <c r="Z310" s="2"/>
-      <c r="AA310" s="2"/>
-      <c r="AB310" s="2"/>
-      <c r="AC310" s="2"/>
-      <c r="AD310" s="2"/>
-      <c r="AE310" s="2"/>
+      <c r="Y310" s="4"/>
+      <c r="Z310" s="4"/>
+      <c r="AA310" s="4"/>
+      <c r="AB310" s="4"/>
+      <c r="AC310" s="4"/>
+      <c r="AD310" s="4"/>
+      <c r="AE310" s="4"/>
       <c r="AF310" s="4"/>
       <c r="AG310" s="4"/>
       <c r="AH310" s="4"/>
@@ -25064,7 +25063,7 @@
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
       <c r="K319" s="4"/>
-      <c r="L319" s="4"/>
+      <c r="L319" s="2"/>
       <c r="M319" s="4"/>
       <c r="N319" s="4"/>
       <c r="O319" s="4"/>
@@ -25211,7 +25210,7 @@
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
       <c r="K322" s="4"/>
-      <c r="L322" s="2"/>
+      <c r="L322" s="4"/>
       <c r="M322" s="4"/>
       <c r="N322" s="4"/>
       <c r="O322" s="4"/>
@@ -25395,134 +25394,85 @@
       <c r="AT325" s="4"/>
       <c r="AU325" s="4"/>
     </row>
-    <row r="326" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A326" s="8"/>
-      <c r="B326" s="4"/>
-      <c r="C326" s="4"/>
-      <c r="D326"/>
-      <c r="E326"/>
-      <c r="F326" s="4"/>
-      <c r="G326" s="4"/>
-      <c r="H326" s="4"/>
-      <c r="I326" s="4"/>
-      <c r="J326" s="4"/>
-      <c r="K326" s="4"/>
-      <c r="L326" s="4"/>
-      <c r="M326" s="4"/>
-      <c r="N326" s="4"/>
-      <c r="O326" s="4"/>
-      <c r="P326" s="4"/>
-      <c r="Q326" s="4"/>
-      <c r="R326" s="4"/>
-      <c r="S326" s="4"/>
-      <c r="T326" s="4"/>
-      <c r="U326" s="4"/>
-      <c r="V326" s="4"/>
-      <c r="W326" s="4"/>
-      <c r="X326" s="4"/>
-      <c r="Y326" s="4"/>
-      <c r="Z326" s="4"/>
-      <c r="AA326" s="4"/>
-      <c r="AB326" s="4"/>
-      <c r="AC326" s="4"/>
-      <c r="AD326" s="4"/>
-      <c r="AE326" s="4"/>
-      <c r="AF326" s="4"/>
-      <c r="AG326" s="4"/>
-      <c r="AH326" s="4"/>
-      <c r="AI326" s="4"/>
-      <c r="AJ326" s="4"/>
-      <c r="AK326" s="4"/>
-      <c r="AL326" s="4"/>
-      <c r="AM326" s="4"/>
-      <c r="AN326" s="4"/>
-      <c r="AO326" s="4"/>
-      <c r="AP326" s="4"/>
-      <c r="AQ326" s="4"/>
-      <c r="AR326" s="4"/>
-      <c r="AS326" s="4"/>
-      <c r="AT326" s="4"/>
-      <c r="AU326" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:BO326" xr:uid="{631333C4-275B-488D-9D6F-BE015DD0478B}"/>
+  <autoFilter ref="A1:BO325"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L281:L326 AU2:AU3 AM2:AM9 AD10 AM11:AM51 AX10:AY10 AC53:AC1048576 AT1:AT326 R53:R1048576 L1:L245 N1:N326 W1:W326 Z53:Z1048576 P53:P1048576 T53:T1048576 AI1:AI326 P1:P51 R1:R51 T1:T51 Z1:Z51 AC1:AC51 AR1:AR326 AM53:AM326 AJ10:AM10 AQ7 AQ28" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L280:L325 AU2:AU3 AM2:AM9 AD10 AM11:AM50 AX10:AY10 AC52:AC1048576 R52:R1048576 Z52:Z1048576 P52:P1048576 T52:T1048576 P1:P50 R1:R50 T1:T50 Z1:Z50 AC1:AC50 AM52:AM325 AJ10:AM10 AQ7 AQ28 AR1:AR325 AI1:AI325 W1:W325 N1:N325 L1:L244 AT1:AT325">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX1:AX9 AX53:AX1048576 BD1:BD1048576 BB1:BB1048576 AZ1:AZ1048576 AV1:AV1048576 BF1:BF1048576 AX11:AX51 BJ1:BJ51 BJ53:BJ1048576 BH9" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX1:AX9 AX52:AX1048576 AX11:AX50 BJ1:BJ50 BJ52:BJ1048576 BH9 BF1:BF1048576 AV1:AV1048576 AZ1:AZ1048576 BB1:BB1048576 BD1:BD1048576">
       <formula1>"existence,possessor,possessum,patient,location,agens,attribute,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY9 BA1:BA1048576 BC1:BC1048576 BE1:BE1048576 AW1:AW1048576 BK53:BK1048576 BJ52:BK52 AY11:AY51 AY53:AY1048576 BK2:BK51 BG1:BG1048576 BI9" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY9 BK52:BK1048576 BJ51:BK51 AY11:AY50 AY52:AY1048576 BK2:BK50 BI9 BG1:BG1048576 AW1:AW1048576 BE1:BE1048576 BC1:BC1048576 BA1:BA1048576">
       <formula1>"head,apposition,pregen,postgen,prepmod,adjective,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD9 AL1:AL9 AD53:AD1048576 O1:O1048576 P52:T52 X1:X1048576 Z52:AE52 AH1:AH1048576 S1:S51 S53:S1048576 AD11:AD51 AL11:AL51 AL53:AL1048576 AP7 AP28" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD9 AL1:AL9 AD52:AD1048576 P51:T51 Z51:AE51 S1:S50 S52:S1048576 AD11:AD50 AL11:AL50 AL52:AL1048576 AP7 AP28 AH1:AH1048576 X1:X1048576 O1:O1048576">
       <formula1>"def,indef,no,na"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1:AJ9 AJ11:AJ1048576 AX52:AY52 AK52:AM52 AN7 AN28" xr:uid="{5D0D753B-515A-4A2A-A7D3-40BB3905E536}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1:AJ9 AX51:AY51 AK51:AM51 AN7 AN28 AJ11:AJ1048576">
       <formula1>"more,one,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF1:AF1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE50 AE52:AE1048576 Y1:Y1048576">
+      <formula1>"m,f,d,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF1:AF1048576">
       <formula1>"one,more,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1:Y1048576 AE1:AE51 AE53:AE1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
-      <formula1>"m,f,d,no"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS1:AS1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS1:AS1048576">
       <formula1>"interpunc,word,mixed,no"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://distantreading.github.io/ELTeC/srp/SRP18620.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://distantreading.github.io/ELTeC/srp/SRP18630.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://distantreading.github.io/ELTeC/srp/SRP18750.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://distantreading.github.io/ELTeC/srp/SRP18760.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://distantreading.github.io/ELTeC/srp/SRP18790.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://distantreading.github.io/ELTeC/srp/SRP18800.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A9" r:id="rId7" display="https://distantreading.github.io/ELTeC/srp/SRP18810.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://distantreading.github.io/ELTeC/srp/SRP18822.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A11" r:id="rId9" display="https://distantreading.github.io/ELTeC/srp/SRP18840.html" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A12" r:id="rId10" display="https://distantreading.github.io/ELTeC/srp/SRP18870.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A13" r:id="rId11" display="https://distantreading.github.io/ELTeC/srp/SRP18871.html" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A14" r:id="rId12" display="https://distantreading.github.io/ELTeC/srp/SRP18880.html" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A16" r:id="rId13" display="https://distantreading.github.io/ELTeC/srp/SRP18890.html" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A17" r:id="rId14" display="https://distantreading.github.io/ELTeC/srp/SRP18910.html" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A18" r:id="rId15" display="https://distantreading.github.io/ELTeC/srp/SRP18920.html" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A19" r:id="rId16" display="https://distantreading.github.io/ELTeC/srp/SRP18930.html" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A52" r:id="rId17" display="https://distantreading.github.io/ELTeC/srp/SRP18931.html" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A20" r:id="rId18" display="https://distantreading.github.io/ELTeC/srp/SRP18932.html" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A21" r:id="rId19" display="https://distantreading.github.io/ELTeC/srp/SRP18940.html" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A23" r:id="rId20" display="https://distantreading.github.io/ELTeC/srp/SRP18950.html" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A24" r:id="rId21" display="https://distantreading.github.io/ELTeC/srp/SRP18960.html" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A26" r:id="rId22" display="https://distantreading.github.io/ELTeC/srp/SRP18990.html" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A27" r:id="rId23" display="https://distantreading.github.io/ELTeC/srp/SRP18991.html" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A29" r:id="rId24" display="https://distantreading.github.io/ELTeC/srp/SRP19000.html" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A30" r:id="rId25" display="https://distantreading.github.io/ELTeC/srp/SRP19020.html" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A31" r:id="rId26" display="https://distantreading.github.io/ELTeC/srp/SRP19021.html" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A32" r:id="rId27" display="https://distantreading.github.io/ELTeC/srp/SRP19022.html" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A33" r:id="rId28" display="https://distantreading.github.io/ELTeC/srp/SRP19030.html" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A34" r:id="rId29" display="https://distantreading.github.io/ELTeC/srp/SRP19040.html" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A35" r:id="rId30" display="https://distantreading.github.io/ELTeC/srp/SRP19050.html" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A36" r:id="rId31" display="https://distantreading.github.io/ELTeC/srp/SRP19051.html" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A37" r:id="rId32" display="https://distantreading.github.io/ELTeC/srp/SRP19060.html" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A38" r:id="rId33" display="https://distantreading.github.io/ELTeC/srp/SRP19070.html" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A39" r:id="rId34" display="https://distantreading.github.io/ELTeC/srp/SRP19071.html" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A40" r:id="rId35" display="https://distantreading.github.io/ELTeC/srp/SRP19100.html" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A41" r:id="rId36" display="https://distantreading.github.io/ELTeC/srp/SRP19110.html" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A42" r:id="rId37" display="https://distantreading.github.io/ELTeC/srp/SRP19120.html" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A43" r:id="rId38" display="https://distantreading.github.io/ELTeC/srp/SRP19130.html" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A44" r:id="rId39" display="https://distantreading.github.io/ELTeC/srp/SRP19131.html" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A46" r:id="rId40" display="https://distantreading.github.io/ELTeC/srp/SRP19140.html" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A47" r:id="rId41" display="https://distantreading.github.io/ELTeC/srp/SRP19180.html" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A48" r:id="rId42" display="https://distantreading.github.io/ELTeC/srp/SRP19190.html" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A49" r:id="rId43" display="https://distantreading.github.io/ELTeC/srp/SRP19192.html" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A50" r:id="rId44" display="https://distantreading.github.io/ELTeC/srp/SRP19200.html" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A2" r:id="rId45" display="SRP18620" xr:uid="{3D6FE0DD-CCD6-454C-8A34-2B3E43349B68}"/>
-    <hyperlink ref="A15" r:id="rId46" display="SRP18880" xr:uid="{A6D0B38E-0B5D-4250-8A07-BD8FE15B8D73}"/>
-    <hyperlink ref="A22" r:id="rId47" display="SRP18950" xr:uid="{E2BE38A5-9E70-472A-AFDF-24B3C4C0A167}"/>
-    <hyperlink ref="A25" r:id="rId48" display="SRP18990" xr:uid="{8E72D567-90B2-4217-B226-B6F7F7232027}"/>
-    <hyperlink ref="A28" r:id="rId49" display="https://distantreading.github.io/ELTeC/srp/SRP19000.html" xr:uid="{D37C4CB6-BD9B-4756-A6C4-1A9D822B8779}"/>
-    <hyperlink ref="A45" r:id="rId50" display="SRP19140" xr:uid="{5A4BB5EC-37AD-4DA7-9295-CCC6012BFA3F}"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://distantreading.github.io/ELTeC/srp/SRP18620.html"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://distantreading.github.io/ELTeC/srp/SRP18630.html"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://distantreading.github.io/ELTeC/srp/SRP18750.html"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://distantreading.github.io/ELTeC/srp/SRP18760.html"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://distantreading.github.io/ELTeC/srp/SRP18790.html"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://distantreading.github.io/ELTeC/srp/SRP18800.html"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://distantreading.github.io/ELTeC/srp/SRP18810.html"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://distantreading.github.io/ELTeC/srp/SRP18822.html"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://distantreading.github.io/ELTeC/srp/SRP18840.html"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://distantreading.github.io/ELTeC/srp/SRP18870.html"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://distantreading.github.io/ELTeC/srp/SRP18871.html"/>
+    <hyperlink ref="A14" r:id="rId12" display="https://distantreading.github.io/ELTeC/srp/SRP18880.html"/>
+    <hyperlink ref="A16" r:id="rId13" display="https://distantreading.github.io/ELTeC/srp/SRP18890.html"/>
+    <hyperlink ref="A17" r:id="rId14" display="https://distantreading.github.io/ELTeC/srp/SRP18910.html"/>
+    <hyperlink ref="A18" r:id="rId15" display="https://distantreading.github.io/ELTeC/srp/SRP18920.html"/>
+    <hyperlink ref="A19" r:id="rId16" display="https://distantreading.github.io/ELTeC/srp/SRP18930.html"/>
+    <hyperlink ref="A51" r:id="rId17" display="https://distantreading.github.io/ELTeC/srp/SRP18931.html"/>
+    <hyperlink ref="A20" r:id="rId18" display="https://distantreading.github.io/ELTeC/srp/SRP18932.html"/>
+    <hyperlink ref="A21" r:id="rId19" display="https://distantreading.github.io/ELTeC/srp/SRP18940.html"/>
+    <hyperlink ref="A23" r:id="rId20" display="https://distantreading.github.io/ELTeC/srp/SRP18950.html"/>
+    <hyperlink ref="A24" r:id="rId21" display="https://distantreading.github.io/ELTeC/srp/SRP18960.html"/>
+    <hyperlink ref="A26" r:id="rId22" display="https://distantreading.github.io/ELTeC/srp/SRP18990.html"/>
+    <hyperlink ref="A27" r:id="rId23" display="https://distantreading.github.io/ELTeC/srp/SRP18991.html"/>
+    <hyperlink ref="A29" r:id="rId24" display="https://distantreading.github.io/ELTeC/srp/SRP19000.html"/>
+    <hyperlink ref="A30" r:id="rId25" display="https://distantreading.github.io/ELTeC/srp/SRP19020.html"/>
+    <hyperlink ref="A31" r:id="rId26" display="https://distantreading.github.io/ELTeC/srp/SRP19021.html"/>
+    <hyperlink ref="A32" r:id="rId27" display="https://distantreading.github.io/ELTeC/srp/SRP19022.html"/>
+    <hyperlink ref="A33" r:id="rId28" display="https://distantreading.github.io/ELTeC/srp/SRP19030.html"/>
+    <hyperlink ref="A34" r:id="rId29" display="https://distantreading.github.io/ELTeC/srp/SRP19040.html"/>
+    <hyperlink ref="A35" r:id="rId30" display="https://distantreading.github.io/ELTeC/srp/SRP19050.html"/>
+    <hyperlink ref="A36" r:id="rId31" display="https://distantreading.github.io/ELTeC/srp/SRP19051.html"/>
+    <hyperlink ref="A37" r:id="rId32" display="https://distantreading.github.io/ELTeC/srp/SRP19060.html"/>
+    <hyperlink ref="A38" r:id="rId33" display="https://distantreading.github.io/ELTeC/srp/SRP19070.html"/>
+    <hyperlink ref="A39" r:id="rId34" display="https://distantreading.github.io/ELTeC/srp/SRP19071.html"/>
+    <hyperlink ref="A40" r:id="rId35" display="https://distantreading.github.io/ELTeC/srp/SRP19100.html"/>
+    <hyperlink ref="A41" r:id="rId36" display="https://distantreading.github.io/ELTeC/srp/SRP19110.html"/>
+    <hyperlink ref="A42" r:id="rId37" display="https://distantreading.github.io/ELTeC/srp/SRP19120.html"/>
+    <hyperlink ref="A43" r:id="rId38" display="https://distantreading.github.io/ELTeC/srp/SRP19130.html"/>
+    <hyperlink ref="A44" r:id="rId39" display="https://distantreading.github.io/ELTeC/srp/SRP19131.html"/>
+    <hyperlink ref="A46" r:id="rId40" display="https://distantreading.github.io/ELTeC/srp/SRP19140.html"/>
+    <hyperlink ref="A47" r:id="rId41" display="https://distantreading.github.io/ELTeC/srp/SRP19180.html"/>
+    <hyperlink ref="A48" r:id="rId42" display="https://distantreading.github.io/ELTeC/srp/SRP19190.html"/>
+    <hyperlink ref="A49" r:id="rId43" display="https://distantreading.github.io/ELTeC/srp/SRP19192.html"/>
+    <hyperlink ref="A50" r:id="rId44" display="https://distantreading.github.io/ELTeC/srp/SRP19200.html"/>
+    <hyperlink ref="A2" r:id="rId45" display="SRP18620"/>
+    <hyperlink ref="A15" r:id="rId46" display="SRP18880"/>
+    <hyperlink ref="A22" r:id="rId47" display="SRP18950"/>
+    <hyperlink ref="A25" r:id="rId48" display="SRP18990"/>
+    <hyperlink ref="A28" r:id="rId49" display="https://distantreading.github.io/ELTeC/srp/SRP19000.html"/>
+    <hyperlink ref="A45" r:id="rId50" display="SRP19140"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId51"/>

--- a/titlePilotStudy/data/SRP.xlsx
+++ b/titlePilotStudy/data/SRP.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="435">
   <si>
     <t>Identifier</t>
   </si>
@@ -433,12 +433,6 @@
   </si>
   <si>
     <t>head</t>
-  </si>
-  <si>
-    <t>title transcription</t>
-  </si>
-  <si>
-    <t>title translation</t>
   </si>
   <si>
     <t>Milan Narandžić</t>
@@ -894,9 +888,6 @@
     <t>Марковић Адамов, Павле (1855-1907)</t>
   </si>
   <si>
-    <t>М</t>
-  </si>
-  <si>
     <t>дух</t>
   </si>
   <si>
@@ -1742,6 +1733,12 @@
   </si>
   <si>
     <t>T1</t>
+  </si>
+  <si>
+    <t>translation</t>
+  </si>
+  <si>
+    <t>transkript</t>
   </si>
 </sst>
 </file>
@@ -2251,10 +2248,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO325"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="BG2" sqref="BG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2291,10 +2288,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>3</v>
@@ -2321,16 +2318,16 @@
         <v>10</v>
       </c>
       <c r="P1" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="R1" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>203</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>205</v>
       </c>
       <c r="T1" s="12" t="s">
         <v>11</v>
@@ -2351,22 +2348,22 @@
         <v>16</v>
       </c>
       <c r="Z1" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB1" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AC1" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AD1" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AE1" s="20" t="s">
         <v>209</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE1" s="20" t="s">
-        <v>211</v>
       </c>
       <c r="AF1" s="12" t="s">
         <v>17</v>
@@ -2381,28 +2378,28 @@
         <v>20</v>
       </c>
       <c r="AJ1" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK1" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL1" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="AK1" s="20" t="s">
+      <c r="AM1" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AL1" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="AM1" s="20" t="s">
-        <v>215</v>
-      </c>
       <c r="AN1" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="AO1" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="AP1" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="AQ1" s="28" t="s">
         <v>395</v>
-      </c>
-      <c r="AO1" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="AP1" s="28" t="s">
-        <v>397</v>
-      </c>
-      <c r="AQ1" s="28" t="s">
-        <v>398</v>
       </c>
       <c r="AR1" s="12" t="s">
         <v>21</v>
@@ -2423,10 +2420,10 @@
         <v>27</v>
       </c>
       <c r="AX1" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AY1" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AZ1" s="12" t="s">
         <v>28</v>
@@ -2453,63 +2450,63 @@
         <v>35</v>
       </c>
       <c r="BH1" s="29" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="BI1" s="29" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="BJ1" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="BK1" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="BL1" s="13" t="s">
         <v>36</v>
       </c>
       <c r="BM1" s="25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="BN1" s="13" t="s">
-        <v>135</v>
+        <v>434</v>
       </c>
       <c r="BO1" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:67" ht="58.2" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>249</v>
+        <v>59</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="15">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="D2" s="15">
-        <v>44207</v>
+        <v>18652</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="15">
-        <v>1852</v>
+        <v>1884</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>221</v>
+        <v>60</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>25</v>
@@ -2572,16 +2569,16 @@
         <v>25</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>147</v>
+        <v>173</v>
+      </c>
+      <c r="AH2" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>25</v>
@@ -2611,94 +2608,93 @@
       <c r="AU2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AV2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="BM2" s="2"/>
+      <c r="AV2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD2" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="BN2" s="3" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="BO2" s="3" t="s">
-        <v>254</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="15">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="D3" s="15">
-        <v>20858</v>
+        <v>19350</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="15">
-        <v>1862</v>
+        <v>1887</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>25</v>
@@ -2725,13 +2721,13 @@
         <v>25</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>25</v>
+      <c r="V3" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>25</v>
@@ -2740,7 +2736,7 @@
         <v>25</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>25</v>
@@ -2761,22 +2757,22 @@
         <v>25</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="AL3" s="2" t="s">
         <v>25</v>
@@ -2789,105 +2785,105 @@
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BA3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="BF3" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BM3" s="2"/>
+      <c r="BB3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL3" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="BM3" s="15"/>
       <c r="BN3" s="3" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="BO3" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="15">
-        <v>256</v>
-      </c>
-      <c r="D4" s="22">
-        <v>88117</v>
+        <v>96</v>
+      </c>
+      <c r="D4" s="15">
+        <v>50732</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>55</v>
       </c>
       <c r="F4" s="15">
-        <v>1863</v>
+        <v>1889</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>25</v>
@@ -2914,52 +2910,52 @@
         <v>25</v>
       </c>
       <c r="T4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI4" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="AJ4" s="2" t="s">
         <v>25</v>
@@ -2984,10 +2980,10 @@
         <v>25</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
+      </c>
+      <c r="AU4" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="AV4" s="3" t="s">
         <v>25</v>
@@ -3002,22 +2998,22 @@
         <v>25</v>
       </c>
       <c r="AZ4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD4" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BE4" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="BB4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE4" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="BF4" s="3" t="s">
         <v>25</v>
@@ -3028,55 +3024,54 @@
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BK4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL4" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="BM4" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="BN4" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="BO4" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="15">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D5" s="15">
-        <v>48661</v>
+        <v>25421</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="15">
-        <v>1875</v>
+        <v>1907</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>25</v>
@@ -3106,10 +3101,10 @@
         <v>131</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V5" s="15" t="s">
-        <v>227</v>
+        <v>181</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>25</v>
@@ -3118,7 +3113,7 @@
         <v>25</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>25</v>
@@ -3223,46 +3218,46 @@
         <v>25</v>
       </c>
       <c r="BL5" s="3" t="s">
-        <v>228</v>
+        <v>345</v>
       </c>
       <c r="BM5" s="3"/>
       <c r="BN5" s="3" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="BO5" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:67" ht="100.8" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="15">
-        <v>103</v>
+        <v>295</v>
       </c>
       <c r="D6" s="15">
-        <v>29793</v>
+        <v>94927</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F6" s="15">
-        <v>1876</v>
+        <v>1912</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>229</v>
+        <v>429</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>355</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>51</v>
@@ -3295,10 +3290,10 @@
         <v>131</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>231</v>
+        <v>356</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>25</v>
@@ -3307,7 +3302,7 @@
         <v>25</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>25</v>
@@ -3328,16 +3323,16 @@
         <v>25</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AJ6" s="2" t="s">
         <v>25</v>
@@ -3365,7 +3360,7 @@
         <v>131</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="AV6" s="3" t="s">
         <v>25</v>
@@ -3392,10 +3387,10 @@
         <v>25</v>
       </c>
       <c r="BD6" s="3" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="BF6" s="3" t="s">
         <v>25</v>
@@ -3412,55 +3407,55 @@
         <v>134</v>
       </c>
       <c r="BL6" s="3" t="s">
-        <v>230</v>
+        <v>356</v>
       </c>
       <c r="BM6" s="3"/>
       <c r="BN6" s="3" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="BO6" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:67" ht="230.4" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="15">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="D7" s="15">
-        <v>18012</v>
+        <v>32555</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="15">
-        <v>1879</v>
+        <v>1918</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>234</v>
+        <v>429</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>387</v>
+        <v>25</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>25</v>
@@ -3481,13 +3476,13 @@
         <v>25</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>25</v>
@@ -3496,16 +3491,16 @@
         <v>25</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>236</v>
+        <v>25</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>25</v>
@@ -3514,55 +3509,47 @@
         <v>25</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>402</v>
+        <v>25</v>
       </c>
       <c r="AL7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
       <c r="AR7" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="AV7" s="3" t="s">
         <v>25</v>
@@ -3571,93 +3558,87 @@
         <v>25</v>
       </c>
       <c r="AX7" s="3" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="AY7" s="3" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="AZ7" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="BA7" s="3" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="BC7" s="3" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="BD7" s="19" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="BE7" s="19" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="BF7" s="3" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="BG7" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH7" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BI7" s="3" t="s">
-        <v>168</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
       <c r="BJ7" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="BK7" s="3" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="BL7" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BM7" s="1" t="s">
-        <v>391</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="BM7" s="3"/>
       <c r="BN7" s="3" t="s">
-        <v>404</v>
+        <v>188</v>
       </c>
       <c r="BO7" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:67" ht="86.4" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="15">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="D8" s="15">
-        <v>51104</v>
+        <v>51973</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="15">
-        <v>1880</v>
+        <v>1919</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>25</v>
@@ -3684,22 +3665,22 @@
         <v>25</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
+      </c>
+      <c r="U8" s="19" t="s">
+        <v>378</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>25</v>
+        <v>378</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="Z8" s="2" t="s">
         <v>25</v>
@@ -3720,10 +3701,10 @@
         <v>25</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="AH8" s="2" t="s">
         <v>25</v>
@@ -3732,13 +3713,13 @@
         <v>131</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="AM8" s="2" t="s">
         <v>25</v>
@@ -3748,16 +3729,16 @@
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AS8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="AV8" s="3" t="s">
         <v>25</v>
@@ -3772,22 +3753,22 @@
         <v>25</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BA8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BB8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD8" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BE8" s="3" t="s">
         <v>134</v>
+      </c>
+      <c r="BB8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD8" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="BE8" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="BF8" s="3" t="s">
         <v>25</v>
@@ -3798,55 +3779,55 @@
       <c r="BH8" s="3"/>
       <c r="BI8" s="3"/>
       <c r="BJ8" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="BK8" s="3" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="BL8" s="3" t="s">
-        <v>173</v>
+        <v>378</v>
       </c>
       <c r="BM8" s="3"/>
       <c r="BN8" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="BO8" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:67" ht="72" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="BO8" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" ht="58.2" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>57</v>
+        <v>247</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="15">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="D9" s="15">
-        <v>10095</v>
+        <v>44207</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="15">
-        <v>1881</v>
+        <v>1852</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>53</v>
+        <v>220</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>219</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>25</v>
@@ -3909,135 +3890,124 @@
         <v>25</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH9" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ9" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK9" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="AL9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN9" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO9" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="AP9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ9" s="19" t="s">
-        <v>25</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
       <c r="AR9" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AV9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BB9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD9" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BE9" s="3" t="s">
+      <c r="BE9" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BF9" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BG9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH9" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BI9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="BJ9" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BK9" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BL9" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="BF9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BG9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BK9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="BM9" s="2"/>
       <c r="BN9" s="3" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="BO9" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="15">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D10" s="15">
-        <v>15022</v>
+        <v>20858</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="15">
-        <v>1882</v>
+        <v>1862</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>245</v>
+      <c r="H10" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>42</v>
@@ -4073,13 +4043,13 @@
         <v>25</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V10" s="15" t="s">
-        <v>246</v>
+      <c r="V10" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>25</v>
@@ -4088,16 +4058,16 @@
         <v>25</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AA10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="AC10" s="2" t="s">
         <v>25</v>
@@ -4106,25 +4076,25 @@
         <v>25</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="AI10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="AL10" s="2" t="s">
         <v>25</v>
@@ -4146,12 +4116,12 @@
         <v>131</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AV10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AV10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AX10" s="2" t="s">
@@ -4160,82 +4130,82 @@
       <c r="AY10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AZ10" s="3" t="s">
+      <c r="AZ10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BA10" s="3" t="s">
+      <c r="BE10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BB10" s="3" t="s">
+      <c r="BF10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BG10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BC10" s="3" t="s">
+      <c r="BK10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BD10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BF10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BG10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH10" s="3"/>
-      <c r="BI10" s="3"/>
-      <c r="BJ10" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BK10" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BL10" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="BM10" s="15"/>
+      <c r="BL10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BM10" s="2"/>
       <c r="BN10" s="3" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="BO10" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="11" spans="1:67" ht="72" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="15">
-        <v>34</v>
-      </c>
-      <c r="D11" s="15">
-        <v>18652</v>
+        <v>256</v>
+      </c>
+      <c r="D11" s="22">
+        <v>88117</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F11" s="15">
-        <v>1884</v>
+        <v>1863</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>431</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>25</v>
@@ -4262,13 +4232,13 @@
         <v>25</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>25</v>
@@ -4277,7 +4247,7 @@
         <v>25</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="Z11" s="2" t="s">
         <v>25</v>
@@ -4298,16 +4268,16 @@
         <v>25</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH11" s="19" t="s">
-        <v>147</v>
+        <v>25</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AJ11" s="2" t="s">
         <v>25</v>
@@ -4350,10 +4320,10 @@
         <v>25</v>
       </c>
       <c r="AZ11" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BA11" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="BB11" s="3" t="s">
         <v>25</v>
@@ -4361,11 +4331,11 @@
       <c r="BC11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BD11" s="19" t="s">
-        <v>176</v>
+      <c r="BD11" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="BE11" s="3" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="BF11" s="3" t="s">
         <v>25</v>
@@ -4381,49 +4351,50 @@
       <c r="BK11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BL11" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="BL11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="BM11" s="3"/>
       <c r="BN11" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="BO11" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:67" ht="72" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="15">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D12" s="15">
-        <v>19350</v>
+        <v>48661</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F12" s="15">
-        <v>1887</v>
+        <v>1875</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>431</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>25</v>
@@ -4456,7 +4427,7 @@
         <v>25</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>25</v>
@@ -4465,7 +4436,7 @@
         <v>25</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Z12" s="2" t="s">
         <v>25</v>
@@ -4569,44 +4540,44 @@
       <c r="BK12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BL12" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="BM12" s="15"/>
+      <c r="BL12" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="BM12" s="3"/>
       <c r="BN12" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="BO12" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:67" ht="72" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="15">
-        <v>385</v>
+        <v>103</v>
       </c>
       <c r="D13" s="15">
-        <v>62835</v>
+        <v>29793</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F13" s="15">
-        <v>1887</v>
+        <v>1876</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>431</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>43</v>
@@ -4642,16 +4613,16 @@
         <v>131</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X13" s="19" t="s">
-        <v>147</v>
+      <c r="X13" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="Y13" s="2" t="s">
         <v>132</v>
@@ -4674,14 +4645,14 @@
       <c r="AE13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF13" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG13" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH13" s="26" t="s">
-        <v>147</v>
+      <c r="AF13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="AI13" s="2" t="s">
         <v>131</v>
@@ -4711,8 +4682,8 @@
       <c r="AT13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AU13" s="23" t="s">
-        <v>253</v>
+      <c r="AU13" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="AV13" s="3" t="s">
         <v>25</v>
@@ -4738,11 +4709,11 @@
       <c r="BC13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BD13" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE13" s="27" t="s">
-        <v>168</v>
+      <c r="BD13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BE13" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="BF13" s="3" t="s">
         <v>25</v>
@@ -4759,57 +4730,55 @@
         <v>134</v>
       </c>
       <c r="BL13" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="BM13" s="3" t="s">
-        <v>392</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="BM13" s="3"/>
       <c r="BN13" s="3" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="BO13" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:67" ht="86.4" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:67" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="15">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D14" s="15">
-        <v>44760</v>
+        <v>18012</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="15">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>67</v>
+      <c r="H14" s="18" t="s">
+        <v>232</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>25</v>
+        <v>384</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>25</v>
@@ -4835,8 +4804,8 @@
       <c r="U14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V14" s="15" t="s">
-        <v>257</v>
+      <c r="V14" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>25</v>
@@ -4845,16 +4814,16 @@
         <v>25</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="AC14" s="2" t="s">
         <v>25</v>
@@ -4863,47 +4832,55 @@
         <v>25</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>25</v>
+        <v>399</v>
       </c>
       <c r="AL14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="2"/>
-      <c r="AQ14" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="AN14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="AP14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="AR14" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU14" s="3" t="s">
-        <v>25</v>
+        <v>131</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="AV14" s="3" t="s">
         <v>25</v>
@@ -4912,10 +4889,10 @@
         <v>25</v>
       </c>
       <c r="AX14" s="3" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="AY14" s="3" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="AZ14" s="3" t="s">
         <v>133</v>
@@ -4924,71 +4901,78 @@
         <v>134</v>
       </c>
       <c r="BB14" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BC14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE14" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
+      </c>
+      <c r="BD14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="BE14" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="BF14" s="3" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="BG14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH14" s="3"/>
-      <c r="BI14" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="BH14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="BI14" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="BJ14" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BK14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL14" s="1" t="s">
-        <v>257</v>
+        <v>134</v>
+      </c>
+      <c r="BL14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="BM14" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="BN14" s="3" t="s">
-        <v>148</v>
+        <v>401</v>
       </c>
       <c r="BO14" s="3" t="s">
-        <v>149</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:67" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>264</v>
+        <v>54</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="15">
-        <v>98</v>
-      </c>
-      <c r="D15" s="24">
-        <v>34963</v>
+        <v>241</v>
+      </c>
+      <c r="D15" s="15">
+        <v>51104</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F15" s="15">
-        <v>1888</v>
+        <v>1880</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>259</v>
+        <v>56</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>260</v>
+        <v>43</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>51</v>
@@ -5023,7 +5007,7 @@
       <c r="U15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V15" s="15" t="s">
+      <c r="V15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="W15" s="2" t="s">
@@ -5054,10 +5038,10 @@
         <v>25</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="AH15" s="2" t="s">
         <v>25</v>
@@ -5066,13 +5050,13 @@
         <v>131</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="AM15" s="2" t="s">
         <v>25</v>
@@ -5082,16 +5066,16 @@
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AS15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AT15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU15" s="3" t="s">
-        <v>25</v>
+        <v>131</v>
+      </c>
+      <c r="AU15" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="AV15" s="3" t="s">
         <v>25</v>
@@ -5132,51 +5116,52 @@
       <c r="BH15" s="3"/>
       <c r="BI15" s="3"/>
       <c r="BJ15" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BK15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL15" s="1" t="s">
-        <v>261</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="BL15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BM15" s="3"/>
       <c r="BN15" s="3" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="BO15" s="3" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="15">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D16" s="15">
-        <v>50732</v>
+        <v>10095</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F16" s="15">
-        <v>1889</v>
+        <v>1881</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>71</v>
+        <v>240</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>51</v>
@@ -5242,35 +5227,43 @@
         <v>25</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH16" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ16" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK16" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN16" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO16" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="AP16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR16" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="AJ16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="AS16" s="2" t="s">
         <v>25</v>
@@ -5278,8 +5271,8 @@
       <c r="AT16" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AU16" s="19" t="s">
-        <v>150</v>
+      <c r="AU16" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="AV16" s="3" t="s">
         <v>25</v>
@@ -5312,13 +5305,17 @@
         <v>134</v>
       </c>
       <c r="BF16" s="3" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="BG16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH16" s="3"/>
-      <c r="BI16" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="BH16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BI16" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="BJ16" s="3" t="s">
         <v>133</v>
       </c>
@@ -5326,48 +5323,48 @@
         <v>134</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="BN16" s="3" t="s">
-        <v>151</v>
+        <v>241</v>
       </c>
       <c r="BO16" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:67" ht="86.4" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="15">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="D17" s="15">
-        <v>23508</v>
+        <v>15022</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="15">
-        <v>1891</v>
+        <v>1882</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>25</v>
@@ -5396,52 +5393,52 @@
       <c r="T17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="U17" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>267</v>
+      <c r="U17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="W17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="X17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y17" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z17" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA17" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB17" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE17" s="19" t="s">
+      <c r="AA17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE17" s="2" t="s">
         <v>132</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG17" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="AH17" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI17" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ17" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AK17" s="2" t="s">
@@ -5467,7 +5464,7 @@
         <v>131</v>
       </c>
       <c r="AU17" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AV17" s="3" t="s">
         <v>25</v>
@@ -5475,10 +5472,10 @@
       <c r="AW17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AX17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY17" s="3" t="s">
+      <c r="AX17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AZ17" s="3" t="s">
@@ -5488,16 +5485,16 @@
         <v>134</v>
       </c>
       <c r="BB17" s="3" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="BC17" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD17" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE17" s="27" t="s">
-        <v>168</v>
+        <v>134</v>
+      </c>
+      <c r="BD17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE17" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="BF17" s="3" t="s">
         <v>25</v>
@@ -5513,58 +5510,56 @@
       <c r="BK17" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="BL17" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="BM17" s="1" t="s">
-        <v>393</v>
-      </c>
+      <c r="BL17" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="BM17" s="15"/>
       <c r="BN17" s="3" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="BO17" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:67" ht="86.4" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="15">
-        <v>239</v>
+        <v>385</v>
       </c>
       <c r="D18" s="15">
-        <v>41500</v>
+        <v>62835</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F18" s="15">
-        <v>1892</v>
+        <v>1887</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>271</v>
+        <v>428</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>250</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>430</v>
+        <v>25</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>25</v>
@@ -5591,13 +5586,13 @@
         <v>25</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="Y18" s="2" t="s">
         <v>132</v>
@@ -5620,19 +5615,19 @@
       <c r="AE18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF18" s="2" t="s">
-        <v>140</v>
+      <c r="AF18" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="AG18" s="26" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="AH18" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI18" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AJ18" s="26" t="s">
+      <c r="AJ18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AK18" s="2" t="s">
@@ -5657,14 +5652,14 @@
       <c r="AT18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AU18" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AV18" s="19" t="s">
-        <v>156</v>
+      <c r="AU18" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV18" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="AX18" s="3" t="s">
         <v>25</v>
@@ -5685,10 +5680,10 @@
         <v>25</v>
       </c>
       <c r="BD18" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BE18" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BF18" s="3" t="s">
         <v>25</v>
@@ -5705,45 +5700,45 @@
         <v>134</v>
       </c>
       <c r="BL18" s="3" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="BM18" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="BN18" s="3" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="BO18" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="19" spans="1:67" ht="100.8" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:67" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="15">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="D19" s="15">
-        <v>36654</v>
+        <v>44760</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="15">
-        <v>1893</v>
+        <v>1888</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>274</v>
+        <v>67</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>43</v>
@@ -5752,10 +5747,10 @@
         <v>69</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>388</v>
+        <v>25</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>25</v>
@@ -5781,17 +5776,17 @@
       <c r="U19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>157</v>
+      <c r="V19" s="15" t="s">
+        <v>255</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="X19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="Z19" s="2" t="s">
         <v>25</v>
@@ -5812,16 +5807,16 @@
         <v>25</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>275</v>
+        <v>25</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="AH19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AJ19" s="2" t="s">
         <v>25</v>
@@ -5840,22 +5835,22 @@
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AS19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AT19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU19" s="2" t="s">
-        <v>232</v>
+        <v>25</v>
+      </c>
+      <c r="AU19" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AV19" s="3" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="AW19" s="3" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="AX19" s="3" t="s">
         <v>25</v>
@@ -5876,10 +5871,10 @@
         <v>25</v>
       </c>
       <c r="BD19" s="3" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="BE19" s="3" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="BF19" s="3" t="s">
         <v>25</v>
@@ -5890,55 +5885,54 @@
       <c r="BH19" s="3"/>
       <c r="BI19" s="3"/>
       <c r="BJ19" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="BK19" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BL19" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM19" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="BL19" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="BN19" s="3" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="BO19" s="3" t="s">
-        <v>414</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:67" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="15">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="D20" s="15">
-        <v>41635</v>
+        <v>23508</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="15">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>277</v>
+        <v>428</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>263</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>25</v>
@@ -5967,52 +5961,52 @@
       <c r="T20" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="U20" s="2" t="s">
-        <v>25</v>
+      <c r="U20" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="X20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y20" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>25</v>
+      <c r="Y20" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z20" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA20" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB20" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE20" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="AF20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>280</v>
-      </c>
-      <c r="AH20" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG20" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH20" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI20" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="AJ20" s="2" t="s">
+      <c r="AJ20" s="26" t="s">
         <v>25</v>
       </c>
       <c r="AK20" s="2" t="s">
@@ -6038,7 +6032,7 @@
         <v>131</v>
       </c>
       <c r="AU20" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AV20" s="3" t="s">
         <v>25</v>
@@ -6059,16 +6053,16 @@
         <v>134</v>
       </c>
       <c r="BB20" s="3" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="BC20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD20" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE20" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
+      </c>
+      <c r="BD20" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="BE20" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="BF20" s="3" t="s">
         <v>25</v>
@@ -6084,56 +6078,58 @@
       <c r="BK20" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="BL20" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="BM20" s="2"/>
+      <c r="BL20" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BM20" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="BN20" s="3" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="BO20" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:67" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="15">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="D21" s="15">
-        <v>40034</v>
+        <v>41500</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="15">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>25</v>
+        <v>427</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>25</v>
@@ -6160,7 +6156,7 @@
         <v>25</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>131</v>
@@ -6168,40 +6164,40 @@
       <c r="X21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y21" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z21" s="19" t="s">
+      <c r="Y21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG21" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH21" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI21" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="AA21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB21" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="AC21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE21" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG21" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI21" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ21" s="2" t="s">
+      <c r="AJ21" s="26" t="s">
         <v>25</v>
       </c>
       <c r="AK21" s="2" t="s">
@@ -6227,13 +6223,13 @@
         <v>131</v>
       </c>
       <c r="AU21" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AV21" s="3" t="s">
-        <v>25</v>
+        <v>230</v>
+      </c>
+      <c r="AV21" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="AW21" s="3" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="AX21" s="3" t="s">
         <v>25</v>
@@ -6248,16 +6244,16 @@
         <v>134</v>
       </c>
       <c r="BB21" s="3" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="BC21" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BD21" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE21" s="3" t="s">
-        <v>155</v>
+        <v>25</v>
+      </c>
+      <c r="BD21" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="BE21" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="BF21" s="3" t="s">
         <v>25</v>
@@ -6274,55 +6270,57 @@
         <v>134</v>
       </c>
       <c r="BL21" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="BM21" s="3"/>
+        <v>270</v>
+      </c>
+      <c r="BM21" s="3" t="s">
+        <v>390</v>
+      </c>
       <c r="BN21" s="3" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="BO21" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="22" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:67" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>296</v>
+        <v>75</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="15">
-        <v>420</v>
+        <v>184</v>
       </c>
       <c r="D22" s="15">
-        <v>94338</v>
+        <v>36654</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F22" s="15">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>289</v>
+        <v>428</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>25</v>
+        <v>385</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>25</v>
@@ -6346,49 +6344,49 @@
         <v>131</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>290</v>
+        <v>25</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>291</v>
+        <v>155</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="X22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y22" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z22" s="19" t="s">
+      <c r="Y22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI22" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="AA22" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="AB22" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC22" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD22" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE22" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI22" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="AJ22" s="2" t="s">
         <v>25</v>
@@ -6407,22 +6405,22 @@
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2"/>
       <c r="AR22" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AS22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AT22" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AU22" s="2" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="AV22" s="3" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="AW22" s="3" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="AX22" s="3" t="s">
         <v>25</v>
@@ -6437,16 +6435,16 @@
         <v>134</v>
       </c>
       <c r="BB22" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="BC22" s="3" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="BD22" s="3" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="BE22" s="3" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="BF22" s="3" t="s">
         <v>25</v>
@@ -6457,49 +6455,49 @@
       <c r="BH22" s="3"/>
       <c r="BI22" s="3"/>
       <c r="BJ22" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BK22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL22" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="BM22" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="BL22" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="BM22" s="23"/>
       <c r="BN22" s="3" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="BO22" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:67" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="15">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D23" s="15">
-        <v>42963</v>
+        <v>41635</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="15">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J23" s="15" t="s">
         <v>43</v>
@@ -6538,7 +6536,7 @@
         <v>25</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>25</v>
@@ -6547,7 +6545,7 @@
         <v>25</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Z23" s="2" t="s">
         <v>25</v>
@@ -6568,13 +6566,13 @@
         <v>25</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG23" s="2" t="s">
-        <v>293</v>
+        <v>138</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>277</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="AI23" s="2" t="s">
         <v>131</v>
@@ -6605,7 +6603,7 @@
         <v>131</v>
       </c>
       <c r="AU23" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AV23" s="3" t="s">
         <v>25</v>
@@ -6620,10 +6618,10 @@
         <v>25</v>
       </c>
       <c r="AZ23" s="3" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="BA23" s="3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="BB23" s="3" t="s">
         <v>25</v>
@@ -6632,10 +6630,10 @@
         <v>25</v>
       </c>
       <c r="BD23" s="3" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="BE23" s="3" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="BF23" s="3" t="s">
         <v>25</v>
@@ -6651,44 +6649,44 @@
       <c r="BK23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="BL23" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="BM23" s="3"/>
+      <c r="BL23" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="BM23" s="2"/>
       <c r="BN23" s="3" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="BO23" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="24" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:67" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="15">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D24" s="15">
-        <v>29862</v>
+        <v>40034</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F24" s="15">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>299</v>
+        <v>428</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>278</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>43</v>
@@ -6724,49 +6722,49 @@
         <v>131</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="X24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y24" s="2" t="s">
+      <c r="Y24" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z24" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB24" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE24" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="Z24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="AF24" s="2" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="AI24" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AJ24" s="2" t="s">
         <v>25</v>
@@ -6794,7 +6792,7 @@
         <v>131</v>
       </c>
       <c r="AU24" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AV24" s="3" t="s">
         <v>25</v>
@@ -6815,16 +6813,16 @@
         <v>134</v>
       </c>
       <c r="BB24" s="3" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="BC24" s="3" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="BD24" s="3" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="BE24" s="3" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="BF24" s="3" t="s">
         <v>25</v>
@@ -6841,49 +6839,49 @@
         <v>134</v>
       </c>
       <c r="BL24" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="BM24" s="3"/>
       <c r="BN24" s="3" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="BO24" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:67" ht="72" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="15">
-        <v>104</v>
+        <v>420</v>
       </c>
       <c r="D25" s="15">
-        <v>20478</v>
+        <v>94338</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F25" s="15">
-        <v>1899</v>
+        <v>1894</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>306</v>
+        <v>428</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>286</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>260</v>
+        <v>43</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>25</v>
@@ -6913,43 +6911,43 @@
         <v>131</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="W25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y25" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z25" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="X25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y25" s="2" t="s">
+      <c r="AA25" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB25" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE25" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="Z25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE25" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="AF25" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>304</v>
+        <v>25</v>
       </c>
       <c r="AH25" s="2" t="s">
         <v>25</v>
@@ -6974,16 +6972,16 @@
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2"/>
       <c r="AR25" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AS25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AT25" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AU25" s="2" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="AV25" s="3" t="s">
         <v>25</v>
@@ -7004,16 +7002,16 @@
         <v>134</v>
       </c>
       <c r="BB25" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BC25" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="BD25" s="3" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="BE25" s="3" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="BF25" s="3" t="s">
         <v>25</v>
@@ -7024,61 +7022,61 @@
       <c r="BH25" s="3"/>
       <c r="BI25" s="3"/>
       <c r="BJ25" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="BK25" s="3" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="BL25" s="3" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="BM25" s="3"/>
       <c r="BN25" s="3" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="BO25" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="26" spans="1:67" ht="144" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="15">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="D26" s="15">
-        <v>45062</v>
+        <v>42963</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="15">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>433</v>
+        <v>25</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>25</v>
@@ -7087,10 +7085,10 @@
         <v>25</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>308</v>
+        <v>25</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>25</v>
@@ -7102,10 +7100,10 @@
         <v>131</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="W26" s="2" t="s">
         <v>25</v>
@@ -7135,10 +7133,10 @@
         <v>25</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AH26" s="2" t="s">
         <v>25</v>
@@ -7147,16 +7145,16 @@
         <v>131</v>
       </c>
       <c r="AJ26" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="AK26" s="2" t="s">
-        <v>311</v>
+        <v>25</v>
       </c>
       <c r="AL26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AM26" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
@@ -7172,43 +7170,43 @@
         <v>131</v>
       </c>
       <c r="AU26" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AV26" s="3" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="AW26" s="3" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="AX26" s="3" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="AY26" s="3" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="AZ26" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD26" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="BA26" s="3" t="s">
+      <c r="BE26" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="BB26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD26" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE26" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="BF26" s="3" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="BG26" s="3" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="BH26" s="3"/>
       <c r="BI26" s="3"/>
@@ -7219,49 +7217,49 @@
         <v>134</v>
       </c>
       <c r="BL26" s="3" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="BM26" s="3"/>
       <c r="BN26" s="3" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="BO26" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="27" spans="1:67" ht="72" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="15">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="D27" s="15">
-        <v>10080</v>
+        <v>29862</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="15">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>89</v>
+        <v>296</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>25</v>
@@ -7288,13 +7286,13 @@
         <v>25</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>25</v>
+        <v>282</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="W27" s="2" t="s">
         <v>25</v>
@@ -7303,7 +7301,7 @@
         <v>25</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="Z27" s="2" t="s">
         <v>25</v>
@@ -7324,16 +7322,16 @@
         <v>25</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="AH27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AI27" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AJ27" s="2" t="s">
         <v>25</v>
@@ -7352,16 +7350,16 @@
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AS27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AT27" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AU27" s="2" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="AV27" s="3" t="s">
         <v>25</v>
@@ -7376,10 +7374,10 @@
         <v>25</v>
       </c>
       <c r="AZ27" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BA27" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="BB27" s="3" t="s">
         <v>25</v>
@@ -7388,10 +7386,10 @@
         <v>25</v>
       </c>
       <c r="BD27" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="BE27" s="3" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="BF27" s="3" t="s">
         <v>25</v>
@@ -7402,34 +7400,34 @@
       <c r="BH27" s="3"/>
       <c r="BI27" s="3"/>
       <c r="BJ27" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BK27" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="BL27" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="BM27" s="3"/>
       <c r="BN27" s="3" t="s">
-        <v>163</v>
+        <v>297</v>
       </c>
       <c r="BO27" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:67" ht="129.6" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:67" ht="144" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="15">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="D28" s="15">
-        <v>31258</v>
+        <v>45062</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>41</v>
@@ -7438,13 +7436,13 @@
         <v>1899</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>314</v>
+        <v>73</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>43</v>
@@ -7453,10 +7451,10 @@
         <v>51</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>25</v>
+        <v>430</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>25</v>
@@ -7465,10 +7463,10 @@
         <v>25</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>25</v>
@@ -7477,13 +7475,13 @@
         <v>25</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>25</v>
+        <v>283</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="W28" s="2" t="s">
         <v>25</v>
@@ -7492,7 +7490,7 @@
         <v>25</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="Z28" s="2" t="s">
         <v>25</v>
@@ -7513,10 +7511,10 @@
         <v>25</v>
       </c>
       <c r="AF28" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AH28" s="2" t="s">
         <v>25</v>
@@ -7525,29 +7523,21 @@
         <v>131</v>
       </c>
       <c r="AJ28" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AK28" s="2" t="s">
-        <v>405</v>
+        <v>308</v>
       </c>
       <c r="AL28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AM28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN28" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO28" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="AP28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ28" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
       <c r="AR28" s="2" t="s">
         <v>131</v>
       </c>
@@ -7558,25 +7548,25 @@
         <v>131</v>
       </c>
       <c r="AU28" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AV28" s="3" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="AW28" s="3" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="AX28" s="3" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="AY28" s="3" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="AZ28" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BA28" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="BB28" s="3" t="s">
         <v>25</v>
@@ -7585,23 +7575,19 @@
         <v>25</v>
       </c>
       <c r="BD28" s="3" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="BE28" s="3" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="BF28" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BG28" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH28" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BI28" s="3" t="s">
-        <v>407</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
       <c r="BJ28" s="3" t="s">
         <v>133</v>
       </c>
@@ -7609,43 +7595,43 @@
         <v>134</v>
       </c>
       <c r="BL28" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="BM28" s="3"/>
       <c r="BN28" s="3" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="BO28" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="15">
-        <v>263</v>
+        <v>68</v>
       </c>
       <c r="D29" s="15">
-        <v>57371</v>
+        <v>10080</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F29" s="15">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>318</v>
+        <v>89</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>43</v>
@@ -7714,10 +7700,10 @@
         <v>25</v>
       </c>
       <c r="AF29" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AH29" s="2" t="s">
         <v>25</v>
@@ -7742,16 +7728,16 @@
       <c r="AP29" s="2"/>
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AS29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AT29" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AU29" s="2" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="AV29" s="3" t="s">
         <v>25</v>
@@ -7792,55 +7778,55 @@
       <c r="BH29" s="3"/>
       <c r="BI29" s="3"/>
       <c r="BJ29" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="BK29" s="3" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="BL29" s="3" t="s">
-        <v>180</v>
+        <v>284</v>
       </c>
       <c r="BM29" s="3"/>
       <c r="BN29" s="3" t="s">
-        <v>319</v>
+        <v>161</v>
       </c>
       <c r="BO29" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="30" spans="1:67" ht="86.4" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:67" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="15">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="D30" s="15">
-        <v>37908</v>
+        <v>31258</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F30" s="15">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>56</v>
+        <v>311</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>25</v>
@@ -7903,22 +7889,22 @@
         <v>25</v>
       </c>
       <c r="AF30" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>181</v>
+        <v>313</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="AI30" s="2" t="s">
         <v>131</v>
       </c>
       <c r="AJ30" s="2" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="AK30" s="2" t="s">
-        <v>25</v>
+        <v>402</v>
       </c>
       <c r="AL30" s="2" t="s">
         <v>25</v>
@@ -7926,10 +7912,18 @@
       <c r="AM30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AN30" s="2"/>
-      <c r="AO30" s="2"/>
-      <c r="AP30" s="2"/>
-      <c r="AQ30" s="2"/>
+      <c r="AN30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="AP30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ30" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="AR30" s="2" t="s">
         <v>131</v>
       </c>
@@ -7940,7 +7934,7 @@
         <v>131</v>
       </c>
       <c r="AU30" s="2" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="AV30" s="3" t="s">
         <v>25</v>
@@ -7973,13 +7967,17 @@
         <v>134</v>
       </c>
       <c r="BF30" s="3" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="BG30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH30" s="3"/>
-      <c r="BI30" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="BH30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="BI30" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="BJ30" s="3" t="s">
         <v>133</v>
       </c>
@@ -7987,43 +7985,43 @@
         <v>134</v>
       </c>
       <c r="BL30" s="3" t="s">
-        <v>181</v>
+        <v>310</v>
       </c>
       <c r="BM30" s="3"/>
       <c r="BN30" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="BO30" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
+      </c>
+      <c r="BO30" s="3" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="15">
-        <v>322</v>
+        <v>263</v>
       </c>
       <c r="D31" s="15">
-        <v>63780</v>
+        <v>57371</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>55</v>
       </c>
       <c r="F31" s="15">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J31" s="15" t="s">
         <v>43</v>
@@ -8056,52 +8054,52 @@
         <v>25</v>
       </c>
       <c r="T31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI31" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y31" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB31" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE31" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI31" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="AJ31" s="2" t="s">
         <v>25</v>
@@ -8129,7 +8127,7 @@
         <v>131</v>
       </c>
       <c r="AU31" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AV31" s="3" t="s">
         <v>25</v>
@@ -8144,22 +8142,22 @@
         <v>25</v>
       </c>
       <c r="AZ31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD31" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="BA31" s="3" t="s">
+      <c r="BE31" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="BB31" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BC31" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="BD31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE31" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="BF31" s="3" t="s">
         <v>25</v>
@@ -8176,28 +8174,28 @@
         <v>134</v>
       </c>
       <c r="BL31" s="3" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="BM31" s="3"/>
       <c r="BN31" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="BO31" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:67" ht="72" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:67" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="15">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="D32" s="15">
-        <v>10109</v>
+        <v>37908</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>41</v>
@@ -8206,19 +8204,19 @@
         <v>1902</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>97</v>
+        <v>429</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>318</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>25</v>
@@ -8245,52 +8243,52 @@
         <v>25</v>
       </c>
       <c r="T32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG32" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH32" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI32" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="V32" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y32" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z32" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA32" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB32" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC32" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD32" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE32" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI32" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="AJ32" s="2" t="s">
         <v>25</v>
@@ -8309,16 +8307,16 @@
       <c r="AP32" s="2"/>
       <c r="AQ32" s="2"/>
       <c r="AR32" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AS32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AT32" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AU32" s="2" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="AV32" s="3" t="s">
         <v>25</v>
@@ -8333,22 +8331,22 @@
         <v>25</v>
       </c>
       <c r="AZ32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD32" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="BA32" s="3" t="s">
+      <c r="BE32" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="BB32" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC32" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE32" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="BF32" s="3" t="s">
         <v>25</v>
@@ -8359,55 +8357,55 @@
       <c r="BH32" s="3"/>
       <c r="BI32" s="3"/>
       <c r="BJ32" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BK32" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="BL32" s="3" t="s">
-        <v>329</v>
+        <v>179</v>
       </c>
       <c r="BM32" s="3"/>
       <c r="BN32" s="3" t="s">
-        <v>166</v>
+        <v>319</v>
       </c>
       <c r="BO32" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="15">
-        <v>181</v>
+        <v>322</v>
       </c>
       <c r="D33" s="15">
-        <v>37860</v>
+        <v>63780</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F33" s="15">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>25</v>
@@ -8434,52 +8432,52 @@
         <v>25</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="U33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="X33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AA33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC33" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC33" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AD33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="AF33" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="AH33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AI33" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AJ33" s="2" t="s">
         <v>25</v>
@@ -8507,7 +8505,7 @@
         <v>131</v>
       </c>
       <c r="AU33" s="2" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="AV33" s="3" t="s">
         <v>25</v>
@@ -8522,22 +8520,22 @@
         <v>25</v>
       </c>
       <c r="AZ33" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BA33" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="BB33" s="3" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="BC33" s="3" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="BD33" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="BE33" s="3" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="BF33" s="3" t="s">
         <v>25</v>
@@ -8554,49 +8552,49 @@
         <v>134</v>
       </c>
       <c r="BL33" s="3" t="s">
-        <v>182</v>
+        <v>325</v>
       </c>
       <c r="BM33" s="3"/>
       <c r="BN33" s="3" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="BO33" s="3" t="s">
-        <v>422</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="15">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="D34" s="15">
-        <v>53009</v>
+        <v>10109</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F34" s="15">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>335</v>
+        <v>429</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J34" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>25</v>
@@ -8625,38 +8623,38 @@
       <c r="T34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="U34" s="2" t="s">
-        <v>330</v>
+      <c r="U34" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="X34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y34" s="2" t="s">
+      <c r="Y34" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z34" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB34" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE34" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="Z34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE34" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="AF34" s="2" t="s">
         <v>25</v>
@@ -8687,16 +8685,16 @@
       <c r="AP34" s="2"/>
       <c r="AQ34" s="2"/>
       <c r="AR34" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AS34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AT34" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AU34" s="2" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="AV34" s="3" t="s">
         <v>25</v>
@@ -8717,10 +8715,10 @@
         <v>134</v>
       </c>
       <c r="BB34" s="3" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="BC34" s="3" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="BD34" s="3" t="s">
         <v>25</v>
@@ -8737,49 +8735,49 @@
       <c r="BH34" s="3"/>
       <c r="BI34" s="3"/>
       <c r="BJ34" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="BK34" s="3" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="BL34" s="3" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="BM34" s="3"/>
       <c r="BN34" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="BO34" s="3" t="s">
-        <v>423</v>
+        <v>164</v>
+      </c>
+      <c r="BO34" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="15">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="D35" s="15">
-        <v>22848</v>
+        <v>37860</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F35" s="15">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="J35" s="15" t="s">
         <v>43</v>
@@ -8812,52 +8810,52 @@
         <v>25</v>
       </c>
       <c r="T35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI35" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y35" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI35" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="AJ35" s="2" t="s">
         <v>25</v>
@@ -8885,7 +8883,7 @@
         <v>131</v>
       </c>
       <c r="AU35" s="2" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="AV35" s="3" t="s">
         <v>25</v>
@@ -8900,22 +8898,22 @@
         <v>25</v>
       </c>
       <c r="AZ35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD35" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="BA35" s="3" t="s">
+      <c r="BE35" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="BB35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE35" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="BF35" s="3" t="s">
         <v>25</v>
@@ -8932,43 +8930,43 @@
         <v>134</v>
       </c>
       <c r="BL35" s="3" t="s">
-        <v>331</v>
+        <v>180</v>
       </c>
       <c r="BM35" s="3"/>
       <c r="BN35" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="BO35" s="3" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="15">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="D36" s="15">
-        <v>24155</v>
+        <v>53009</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F36" s="15">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>103</v>
+        <v>332</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J36" s="15" t="s">
         <v>43</v>
@@ -9004,10 +9002,10 @@
         <v>131</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>25</v>
+        <v>327</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="W36" s="2" t="s">
         <v>25</v>
@@ -9037,16 +9035,16 @@
         <v>25</v>
       </c>
       <c r="AF36" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="AG36" s="2" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="AH36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AI36" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AJ36" s="2" t="s">
         <v>25</v>
@@ -9065,16 +9063,16 @@
       <c r="AP36" s="2"/>
       <c r="AQ36" s="2"/>
       <c r="AR36" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AS36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AT36" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AU36" s="2" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="AV36" s="3" t="s">
         <v>25</v>
@@ -9089,10 +9087,10 @@
         <v>25</v>
       </c>
       <c r="AZ36" s="3" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="BA36" s="3" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="BB36" s="3" t="s">
         <v>25</v>
@@ -9101,10 +9099,10 @@
         <v>25</v>
       </c>
       <c r="BD36" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="BE36" s="3" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="BF36" s="3" t="s">
         <v>25</v>
@@ -9115,49 +9113,49 @@
       <c r="BH36" s="3"/>
       <c r="BI36" s="3"/>
       <c r="BJ36" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BK36" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="BL36" s="3" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="BM36" s="3"/>
       <c r="BN36" s="3" t="s">
-        <v>170</v>
+        <v>334</v>
       </c>
       <c r="BO36" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="37" spans="1:67" ht="86.4" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="15">
-        <v>296</v>
+        <v>145</v>
       </c>
       <c r="D37" s="15">
-        <v>81145</v>
+        <v>22848</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F37" s="15">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="J37" s="15" t="s">
         <v>43</v>
@@ -9166,37 +9164,37 @@
         <v>51</v>
       </c>
       <c r="L37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T37" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="U37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>25</v>
+        <v>328</v>
       </c>
       <c r="W37" s="2" t="s">
         <v>25</v>
@@ -9205,7 +9203,7 @@
         <v>25</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="Z37" s="2" t="s">
         <v>25</v>
@@ -9226,28 +9224,28 @@
         <v>25</v>
       </c>
       <c r="AF37" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="AG37" s="2" t="s">
-        <v>345</v>
+        <v>25</v>
       </c>
       <c r="AH37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AI37" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AJ37" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="AK37" s="2" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="AL37" s="2" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="AM37" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
@@ -9263,13 +9261,13 @@
         <v>131</v>
       </c>
       <c r="AU37" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AV37" s="3" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="AW37" s="3" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="AX37" s="3" t="s">
         <v>25</v>
@@ -9278,10 +9276,10 @@
         <v>25</v>
       </c>
       <c r="AZ37" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BA37" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="BB37" s="3" t="s">
         <v>25</v>
@@ -9290,16 +9288,16 @@
         <v>25</v>
       </c>
       <c r="BD37" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="BE37" s="3" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="BF37" s="3" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="BG37" s="3" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="BH37" s="3"/>
       <c r="BI37" s="3"/>
@@ -9310,46 +9308,46 @@
         <v>134</v>
       </c>
       <c r="BL37" s="3" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="BM37" s="3"/>
       <c r="BN37" s="3" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="BO37" s="3" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="15">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D38" s="15">
-        <v>25421</v>
+        <v>24155</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F38" s="15">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K38" s="15" t="s">
         <v>51</v>
@@ -9382,10 +9380,10 @@
         <v>131</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>25</v>
@@ -9394,7 +9392,7 @@
         <v>25</v>
       </c>
       <c r="Y38" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Z38" s="2" t="s">
         <v>25</v>
@@ -9415,16 +9413,16 @@
         <v>25</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="AH38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AI38" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AJ38" s="2" t="s">
         <v>25</v>
@@ -9467,22 +9465,22 @@
         <v>25</v>
       </c>
       <c r="AZ38" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="BA38" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD38" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="BA38" s="3" t="s">
+      <c r="BE38" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="BB38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE38" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="BF38" s="3" t="s">
         <v>25</v>
@@ -9499,55 +9497,55 @@
         <v>25</v>
       </c>
       <c r="BL38" s="3" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="BM38" s="3"/>
       <c r="BN38" s="3" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="BO38" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:67" ht="72" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:67" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="15">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="D39" s="15">
-        <v>51414</v>
+        <v>81145</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>55</v>
       </c>
       <c r="F39" s="15">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>349</v>
+        <v>429</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>341</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="J39" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>25</v>
@@ -9568,64 +9566,64 @@
         <v>25</v>
       </c>
       <c r="T39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG39" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI39" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="U39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="W39" s="2" t="s">
+      <c r="AJ39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM39" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y39" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z39" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA39" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB39" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="AC39" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD39" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE39" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL39" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM39" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
@@ -9641,13 +9639,13 @@
         <v>131</v>
       </c>
       <c r="AU39" s="2" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="AV39" s="3" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="AW39" s="3" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="AX39" s="3" t="s">
         <v>25</v>
@@ -9656,28 +9654,28 @@
         <v>25</v>
       </c>
       <c r="AZ39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD39" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="BA39" s="3" t="s">
+      <c r="BE39" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="BB39" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC39" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE39" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="BF39" s="3" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="BG39" s="3" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="BH39" s="3"/>
       <c r="BI39" s="3"/>
@@ -9688,49 +9686,49 @@
         <v>134</v>
       </c>
       <c r="BL39" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="BM39" s="3"/>
       <c r="BN39" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="BO39" s="3" t="s">
-        <v>424</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="15">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="D40" s="15">
-        <v>81827</v>
+        <v>51414</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>55</v>
       </c>
       <c r="F40" s="15">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>353</v>
+        <v>429</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>346</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="J40" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>25</v>
@@ -9763,34 +9761,34 @@
         <v>25</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="X40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y40" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE40" s="2" t="s">
-        <v>25</v>
+      <c r="Y40" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z40" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA40" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB40" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC40" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD40" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE40" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="AF40" s="2" t="s">
         <v>25</v>
@@ -9830,7 +9828,7 @@
         <v>131</v>
       </c>
       <c r="AU40" s="2" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="AV40" s="3" t="s">
         <v>25</v>
@@ -9851,10 +9849,10 @@
         <v>134</v>
       </c>
       <c r="BB40" s="3" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="BC40" s="3" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="BD40" s="3" t="s">
         <v>25</v>
@@ -9877,40 +9875,40 @@
         <v>134</v>
       </c>
       <c r="BL40" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="BM40" s="3"/>
       <c r="BN40" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="BO40" s="3" t="s">
-        <v>356</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="15">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="D41" s="15">
-        <v>12023</v>
+        <v>81827</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F41" s="15">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>114</v>
+        <v>350</v>
       </c>
       <c r="I41" s="15" t="s">
         <v>112</v>
@@ -9919,7 +9917,7 @@
         <v>43</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>25</v>
@@ -9946,13 +9944,13 @@
         <v>25</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="U41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>25</v>
+        <v>351</v>
       </c>
       <c r="W41" s="2" t="s">
         <v>25</v>
@@ -9961,7 +9959,7 @@
         <v>25</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="Z41" s="2" t="s">
         <v>25</v>
@@ -9982,16 +9980,16 @@
         <v>25</v>
       </c>
       <c r="AF41" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="AH41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AI41" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AJ41" s="2" t="s">
         <v>25</v>
@@ -10010,16 +10008,16 @@
       <c r="AP41" s="2"/>
       <c r="AQ41" s="2"/>
       <c r="AR41" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AS41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AT41" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AU41" s="2" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="AV41" s="3" t="s">
         <v>25</v>
@@ -10034,10 +10032,10 @@
         <v>25</v>
       </c>
       <c r="AZ41" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BA41" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="BB41" s="3" t="s">
         <v>25</v>
@@ -10046,10 +10044,10 @@
         <v>25</v>
       </c>
       <c r="BD41" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="BE41" s="3" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="BF41" s="3" t="s">
         <v>25</v>
@@ -10060,52 +10058,52 @@
       <c r="BH41" s="3"/>
       <c r="BI41" s="3"/>
       <c r="BJ41" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BK41" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="BL41" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="BM41" s="3"/>
       <c r="BN41" s="3" t="s">
-        <v>186</v>
+        <v>352</v>
       </c>
       <c r="BO41" s="3" t="s">
-        <v>187</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="15">
-        <v>295</v>
+        <v>36</v>
       </c>
       <c r="D42" s="15">
-        <v>94927</v>
+        <v>12023</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F42" s="15">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>358</v>
+        <v>429</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K42" s="15" t="s">
         <v>51</v>
@@ -10135,52 +10133,52 @@
         <v>25</v>
       </c>
       <c r="T42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG42" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI42" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="U42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V42" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y42" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI42" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="AJ42" s="2" t="s">
         <v>25</v>
@@ -10199,16 +10197,16 @@
       <c r="AP42" s="2"/>
       <c r="AQ42" s="2"/>
       <c r="AR42" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AS42" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AT42" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AU42" s="2" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="AV42" s="3" t="s">
         <v>25</v>
@@ -10223,22 +10221,22 @@
         <v>25</v>
       </c>
       <c r="AZ42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD42" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="BA42" s="3" t="s">
+      <c r="BE42" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="BB42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE42" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="BF42" s="3" t="s">
         <v>25</v>
@@ -10249,20 +10247,20 @@
       <c r="BH42" s="3"/>
       <c r="BI42" s="3"/>
       <c r="BJ42" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="BK42" s="3" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="BL42" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="BM42" s="3"/>
       <c r="BN42" s="3" t="s">
-        <v>360</v>
+        <v>184</v>
       </c>
       <c r="BO42" s="3" t="s">
-        <v>361</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:67" ht="129.6" x14ac:dyDescent="0.3">
@@ -10285,10 +10283,10 @@
         <v>1913</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I43" s="15" t="s">
         <v>117</v>
@@ -10303,7 +10301,7 @@
         <v>131</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>25</v>
@@ -10327,10 +10325,10 @@
         <v>131</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="W43" s="2" t="s">
         <v>25</v>
@@ -10348,7 +10346,7 @@
         <v>25</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AC43" s="2" t="s">
         <v>25</v>
@@ -10360,10 +10358,10 @@
         <v>132</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AH43" s="2" t="s">
         <v>25</v>
@@ -10372,13 +10370,13 @@
         <v>131</v>
       </c>
       <c r="AJ43" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AK43" s="26" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AL43" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AM43" s="26" t="s">
         <v>131</v>
@@ -10397,13 +10395,13 @@
         <v>131</v>
       </c>
       <c r="AU43" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AV43" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AW43" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AX43" s="3" t="s">
         <v>25</v>
@@ -10424,16 +10422,16 @@
         <v>134</v>
       </c>
       <c r="BD43" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BE43" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BF43" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BG43" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BH43" s="27"/>
       <c r="BI43" s="27"/>
@@ -10444,16 +10442,16 @@
         <v>134</v>
       </c>
       <c r="BL43" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="BM43" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="BN43" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="BO43" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44" spans="1:67" ht="100.8" x14ac:dyDescent="0.3">
@@ -10476,10 +10474,10 @@
         <v>1913</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I44" s="15" t="s">
         <v>119</v>
@@ -10518,16 +10516,16 @@
         <v>131</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="W44" s="2" t="s">
         <v>131</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Y44" s="2" t="s">
         <v>132</v>
@@ -10551,10 +10549,10 @@
         <v>25</v>
       </c>
       <c r="AF44" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AH44" s="2" t="s">
         <v>25</v>
@@ -10563,10 +10561,10 @@
         <v>25</v>
       </c>
       <c r="AJ44" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AK44" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AL44" s="2" t="s">
         <v>25</v>
@@ -10588,7 +10586,7 @@
         <v>131</v>
       </c>
       <c r="AU44" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AV44" s="3" t="s">
         <v>25</v>
@@ -10603,10 +10601,10 @@
         <v>25</v>
       </c>
       <c r="AZ44" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BA44" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BB44" s="3" t="s">
         <v>25</v>
@@ -10615,16 +10613,16 @@
         <v>25</v>
       </c>
       <c r="BD44" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BE44" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BF44" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BG44" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BH44" s="3"/>
       <c r="BI44" s="3"/>
@@ -10635,19 +10633,19 @@
         <v>134</v>
       </c>
       <c r="BL44" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="BM44" s="3"/>
       <c r="BN44" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="BO44" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>40</v>
@@ -10665,10 +10663,10 @@
         <v>1913</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I45" s="15" t="s">
         <v>104</v>
@@ -10710,7 +10708,7 @@
         <v>25</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="W45" s="2" t="s">
         <v>25</v>
@@ -10777,7 +10775,7 @@
         <v>131</v>
       </c>
       <c r="AU45" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AV45" s="3" t="s">
         <v>25</v>
@@ -10824,14 +10822,14 @@
         <v>134</v>
       </c>
       <c r="BL45" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="BM45" s="3"/>
       <c r="BN45" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="BO45" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="1:67" ht="72" x14ac:dyDescent="0.3">
@@ -10854,10 +10852,10 @@
         <v>1914</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I46" s="15" t="s">
         <v>112</v>
@@ -10899,7 +10897,7 @@
         <v>25</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="W46" s="2" t="s">
         <v>25</v>
@@ -10966,7 +10964,7 @@
         <v>131</v>
       </c>
       <c r="AU46" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AV46" s="3" t="s">
         <v>25</v>
@@ -11013,46 +11011,46 @@
         <v>134</v>
       </c>
       <c r="BL46" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="BM46" s="3"/>
       <c r="BN46" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="BO46" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="15">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D47" s="15">
-        <v>32555</v>
+        <v>38705</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F47" s="15">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K47" s="15" t="s">
         <v>51</v>
@@ -11118,10 +11116,10 @@
         <v>25</v>
       </c>
       <c r="AF47" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG47" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AH47" s="2" t="s">
         <v>25</v>
@@ -11182,10 +11180,10 @@
         <v>25</v>
       </c>
       <c r="BD47" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BE47" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BF47" s="3" t="s">
         <v>25</v>
@@ -11202,49 +11200,49 @@
         <v>25</v>
       </c>
       <c r="BL47" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="BM47" s="3"/>
       <c r="BN47" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BO47" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:67" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C48" s="15">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="D48" s="15">
-        <v>51973</v>
+        <v>17942</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F48" s="15">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>125</v>
+        <v>429</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>379</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>25</v>
@@ -11273,11 +11271,11 @@
       <c r="T48" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="U48" s="19" t="s">
-        <v>381</v>
+      <c r="U48" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W48" s="2" t="s">
         <v>131</v>
@@ -11307,10 +11305,10 @@
         <v>25</v>
       </c>
       <c r="AF48" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG48" s="2" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="AH48" s="2" t="s">
         <v>25</v>
@@ -11335,16 +11333,16 @@
       <c r="AP48" s="2"/>
       <c r="AQ48" s="2"/>
       <c r="AR48" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AS48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AT48" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AU48" s="2" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="AV48" s="3" t="s">
         <v>25</v>
@@ -11364,17 +11362,17 @@
       <c r="BA48" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="BB48" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC48" s="19" t="s">
+      <c r="BB48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="BD48" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE48" s="19" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="BE48" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="BF48" s="3" t="s">
         <v>25</v>
@@ -11385,55 +11383,55 @@
       <c r="BH48" s="3"/>
       <c r="BI48" s="3"/>
       <c r="BJ48" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BK48" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="BL48" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BM48" s="3"/>
       <c r="BN48" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="BO48" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:67" ht="72" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="BO48" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C49" s="15">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="D49" s="15">
-        <v>38705</v>
+        <v>12658</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F49" s="15">
-        <v>1919</v>
+        <v>1893</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="J49" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>25</v>
@@ -11496,16 +11494,16 @@
         <v>25</v>
       </c>
       <c r="AF49" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="AH49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AI49" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AJ49" s="2" t="s">
         <v>25</v>
@@ -11541,10 +11539,10 @@
       <c r="AW49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AX49" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY49" s="3" t="s">
+      <c r="AX49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AZ49" s="3" t="s">
@@ -11559,11 +11557,11 @@
       <c r="BC49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BD49" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE49" s="19" t="s">
-        <v>155</v>
+      <c r="BD49" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BE49" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="BF49" s="3" t="s">
         <v>25</v>
@@ -11580,43 +11578,43 @@
         <v>25</v>
       </c>
       <c r="BL49" s="3" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="BM49" s="3"/>
       <c r="BN49" s="3" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="BO49" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="50" spans="1:67" ht="100.8" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:67" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>129</v>
+        <v>261</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C50" s="15">
-        <v>120</v>
-      </c>
-      <c r="D50" s="15">
-        <v>17942</v>
+        <v>98</v>
+      </c>
+      <c r="D50" s="24">
+        <v>34963</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F50" s="15">
-        <v>1920</v>
+        <v>1888</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>382</v>
+        <v>428</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="J50" s="15" t="s">
         <v>43</v>
@@ -11649,22 +11647,22 @@
         <v>25</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="U50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V50" s="2" t="s">
-        <v>383</v>
+      <c r="V50" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="X50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="Z50" s="2" t="s">
         <v>25</v>
@@ -11685,10 +11683,10 @@
         <v>25</v>
       </c>
       <c r="AF50" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="AH50" s="2" t="s">
         <v>25</v>
@@ -11713,16 +11711,16 @@
       <c r="AP50" s="2"/>
       <c r="AQ50" s="2"/>
       <c r="AR50" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AS50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AT50" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU50" s="2" t="s">
-        <v>150</v>
+        <v>25</v>
+      </c>
+      <c r="AU50" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="AV50" s="3" t="s">
         <v>25</v>
@@ -11737,22 +11735,22 @@
         <v>25</v>
       </c>
       <c r="AZ50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD50" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="BA50" s="3" t="s">
+      <c r="BE50" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="BB50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD50" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE50" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="BF50" s="3" t="s">
         <v>25</v>
@@ -11763,55 +11761,54 @@
       <c r="BH50" s="3"/>
       <c r="BI50" s="3"/>
       <c r="BJ50" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="BK50" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BL50" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="BM50" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="BL50" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="BN50" s="3" t="s">
-        <v>384</v>
+        <v>259</v>
       </c>
       <c r="BO50" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="51" spans="1:67" ht="57.6" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:67" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C51" s="15">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="D51" s="15">
-        <v>12658</v>
+        <v>20478</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F51" s="15">
-        <v>1893</v>
+        <v>1899</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="J51" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>25</v>
@@ -11838,22 +11835,22 @@
         <v>25</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="U51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="X51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Y51" s="2" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="Z51" s="2" t="s">
         <v>25</v>
@@ -11874,16 +11871,16 @@
         <v>25</v>
       </c>
       <c r="AF51" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>178</v>
+        <v>301</v>
       </c>
       <c r="AH51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AI51" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="AJ51" s="2" t="s">
         <v>25</v>
@@ -11902,16 +11899,16 @@
       <c r="AP51" s="2"/>
       <c r="AQ51" s="2"/>
       <c r="AR51" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AS51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AT51" s="2" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="AU51" s="2" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="AV51" s="3" t="s">
         <v>25</v>
@@ -11919,17 +11916,17 @@
       <c r="AW51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AX51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY51" s="2" t="s">
+      <c r="AX51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY51" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AZ51" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BA51" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="BB51" s="3" t="s">
         <v>25</v>
@@ -11938,10 +11935,10 @@
         <v>25</v>
       </c>
       <c r="BD51" s="3" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="BE51" s="3" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="BF51" s="3" t="s">
         <v>25</v>
@@ -11952,20 +11949,20 @@
       <c r="BH51" s="3"/>
       <c r="BI51" s="3"/>
       <c r="BJ51" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="BK51" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="BL51" s="3" t="s">
-        <v>178</v>
+        <v>300</v>
       </c>
       <c r="BM51" s="3"/>
       <c r="BN51" s="3" t="s">
-        <v>153</v>
+        <v>302</v>
       </c>
       <c r="BO51" s="3" t="s">
-        <v>154</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52" spans="1:67" x14ac:dyDescent="0.3">
@@ -25396,6 +25393,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BO325"/>
+  <sortState ref="A2:BO51">
+    <sortCondition ref="J2:J51"/>
+  </sortState>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L280:L325 AU2:AU3 AM2:AM9 AD10 AM11:AM50 AX10:AY10 AC52:AC1048576 R52:R1048576 Z52:Z1048576 P52:P1048576 T52:T1048576 P1:P50 R1:R50 T1:T50 Z1:Z50 AC1:AC50 AM52:AM325 AJ10:AM10 AQ7 AQ28 AR1:AR325 AI1:AI325 W1:W325 N1:N325 L1:L244 AT1:AT325">
       <formula1>"yes,no"</formula1>
@@ -25423,55 +25423,55 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://distantreading.github.io/ELTeC/srp/SRP18620.html"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://distantreading.github.io/ELTeC/srp/SRP18630.html"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://distantreading.github.io/ELTeC/srp/SRP18750.html"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://distantreading.github.io/ELTeC/srp/SRP18760.html"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://distantreading.github.io/ELTeC/srp/SRP18790.html"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://distantreading.github.io/ELTeC/srp/SRP18800.html"/>
-    <hyperlink ref="A9" r:id="rId7" display="https://distantreading.github.io/ELTeC/srp/SRP18810.html"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://distantreading.github.io/ELTeC/srp/SRP18822.html"/>
-    <hyperlink ref="A11" r:id="rId9" display="https://distantreading.github.io/ELTeC/srp/SRP18840.html"/>
-    <hyperlink ref="A12" r:id="rId10" display="https://distantreading.github.io/ELTeC/srp/SRP18870.html"/>
-    <hyperlink ref="A13" r:id="rId11" display="https://distantreading.github.io/ELTeC/srp/SRP18871.html"/>
-    <hyperlink ref="A14" r:id="rId12" display="https://distantreading.github.io/ELTeC/srp/SRP18880.html"/>
-    <hyperlink ref="A16" r:id="rId13" display="https://distantreading.github.io/ELTeC/srp/SRP18890.html"/>
-    <hyperlink ref="A17" r:id="rId14" display="https://distantreading.github.io/ELTeC/srp/SRP18910.html"/>
-    <hyperlink ref="A18" r:id="rId15" display="https://distantreading.github.io/ELTeC/srp/SRP18920.html"/>
-    <hyperlink ref="A19" r:id="rId16" display="https://distantreading.github.io/ELTeC/srp/SRP18930.html"/>
-    <hyperlink ref="A51" r:id="rId17" display="https://distantreading.github.io/ELTeC/srp/SRP18931.html"/>
-    <hyperlink ref="A20" r:id="rId18" display="https://distantreading.github.io/ELTeC/srp/SRP18932.html"/>
-    <hyperlink ref="A21" r:id="rId19" display="https://distantreading.github.io/ELTeC/srp/SRP18940.html"/>
-    <hyperlink ref="A23" r:id="rId20" display="https://distantreading.github.io/ELTeC/srp/SRP18950.html"/>
-    <hyperlink ref="A24" r:id="rId21" display="https://distantreading.github.io/ELTeC/srp/SRP18960.html"/>
-    <hyperlink ref="A26" r:id="rId22" display="https://distantreading.github.io/ELTeC/srp/SRP18990.html"/>
-    <hyperlink ref="A27" r:id="rId23" display="https://distantreading.github.io/ELTeC/srp/SRP18991.html"/>
-    <hyperlink ref="A29" r:id="rId24" display="https://distantreading.github.io/ELTeC/srp/SRP19000.html"/>
-    <hyperlink ref="A30" r:id="rId25" display="https://distantreading.github.io/ELTeC/srp/SRP19020.html"/>
-    <hyperlink ref="A31" r:id="rId26" display="https://distantreading.github.io/ELTeC/srp/SRP19021.html"/>
-    <hyperlink ref="A32" r:id="rId27" display="https://distantreading.github.io/ELTeC/srp/SRP19022.html"/>
-    <hyperlink ref="A33" r:id="rId28" display="https://distantreading.github.io/ELTeC/srp/SRP19030.html"/>
-    <hyperlink ref="A34" r:id="rId29" display="https://distantreading.github.io/ELTeC/srp/SRP19040.html"/>
-    <hyperlink ref="A35" r:id="rId30" display="https://distantreading.github.io/ELTeC/srp/SRP19050.html"/>
-    <hyperlink ref="A36" r:id="rId31" display="https://distantreading.github.io/ELTeC/srp/SRP19051.html"/>
-    <hyperlink ref="A37" r:id="rId32" display="https://distantreading.github.io/ELTeC/srp/SRP19060.html"/>
-    <hyperlink ref="A38" r:id="rId33" display="https://distantreading.github.io/ELTeC/srp/SRP19070.html"/>
-    <hyperlink ref="A39" r:id="rId34" display="https://distantreading.github.io/ELTeC/srp/SRP19071.html"/>
-    <hyperlink ref="A40" r:id="rId35" display="https://distantreading.github.io/ELTeC/srp/SRP19100.html"/>
-    <hyperlink ref="A41" r:id="rId36" display="https://distantreading.github.io/ELTeC/srp/SRP19110.html"/>
-    <hyperlink ref="A42" r:id="rId37" display="https://distantreading.github.io/ELTeC/srp/SRP19120.html"/>
+    <hyperlink ref="A10" r:id="rId1" display="https://distantreading.github.io/ELTeC/srp/SRP18620.html"/>
+    <hyperlink ref="A11" r:id="rId2" display="https://distantreading.github.io/ELTeC/srp/SRP18630.html"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://distantreading.github.io/ELTeC/srp/SRP18750.html"/>
+    <hyperlink ref="A13" r:id="rId4" display="https://distantreading.github.io/ELTeC/srp/SRP18760.html"/>
+    <hyperlink ref="A14" r:id="rId5" display="https://distantreading.github.io/ELTeC/srp/SRP18790.html"/>
+    <hyperlink ref="A15" r:id="rId6" display="https://distantreading.github.io/ELTeC/srp/SRP18800.html"/>
+    <hyperlink ref="A16" r:id="rId7" display="https://distantreading.github.io/ELTeC/srp/SRP18810.html"/>
+    <hyperlink ref="A17" r:id="rId8" display="https://distantreading.github.io/ELTeC/srp/SRP18822.html"/>
+    <hyperlink ref="A2" r:id="rId9" display="https://distantreading.github.io/ELTeC/srp/SRP18840.html"/>
+    <hyperlink ref="A3" r:id="rId10" display="https://distantreading.github.io/ELTeC/srp/SRP18870.html"/>
+    <hyperlink ref="A18" r:id="rId11" display="https://distantreading.github.io/ELTeC/srp/SRP18871.html"/>
+    <hyperlink ref="A19" r:id="rId12" display="https://distantreading.github.io/ELTeC/srp/SRP18880.html"/>
+    <hyperlink ref="A4" r:id="rId13" display="https://distantreading.github.io/ELTeC/srp/SRP18890.html"/>
+    <hyperlink ref="A20" r:id="rId14" display="https://distantreading.github.io/ELTeC/srp/SRP18910.html"/>
+    <hyperlink ref="A21" r:id="rId15" display="https://distantreading.github.io/ELTeC/srp/SRP18920.html"/>
+    <hyperlink ref="A22" r:id="rId16" display="https://distantreading.github.io/ELTeC/srp/SRP18930.html"/>
+    <hyperlink ref="A49" r:id="rId17" display="https://distantreading.github.io/ELTeC/srp/SRP18931.html"/>
+    <hyperlink ref="A23" r:id="rId18" display="https://distantreading.github.io/ELTeC/srp/SRP18932.html"/>
+    <hyperlink ref="A24" r:id="rId19" display="https://distantreading.github.io/ELTeC/srp/SRP18940.html"/>
+    <hyperlink ref="A26" r:id="rId20" display="https://distantreading.github.io/ELTeC/srp/SRP18950.html"/>
+    <hyperlink ref="A27" r:id="rId21" display="https://distantreading.github.io/ELTeC/srp/SRP18960.html"/>
+    <hyperlink ref="A28" r:id="rId22" display="https://distantreading.github.io/ELTeC/srp/SRP18990.html"/>
+    <hyperlink ref="A29" r:id="rId23" display="https://distantreading.github.io/ELTeC/srp/SRP18991.html"/>
+    <hyperlink ref="A31" r:id="rId24" display="https://distantreading.github.io/ELTeC/srp/SRP19000.html"/>
+    <hyperlink ref="A32" r:id="rId25" display="https://distantreading.github.io/ELTeC/srp/SRP19020.html"/>
+    <hyperlink ref="A33" r:id="rId26" display="https://distantreading.github.io/ELTeC/srp/SRP19021.html"/>
+    <hyperlink ref="A34" r:id="rId27" display="https://distantreading.github.io/ELTeC/srp/SRP19022.html"/>
+    <hyperlink ref="A35" r:id="rId28" display="https://distantreading.github.io/ELTeC/srp/SRP19030.html"/>
+    <hyperlink ref="A36" r:id="rId29" display="https://distantreading.github.io/ELTeC/srp/SRP19040.html"/>
+    <hyperlink ref="A37" r:id="rId30" display="https://distantreading.github.io/ELTeC/srp/SRP19050.html"/>
+    <hyperlink ref="A38" r:id="rId31" display="https://distantreading.github.io/ELTeC/srp/SRP19051.html"/>
+    <hyperlink ref="A39" r:id="rId32" display="https://distantreading.github.io/ELTeC/srp/SRP19060.html"/>
+    <hyperlink ref="A5" r:id="rId33" display="https://distantreading.github.io/ELTeC/srp/SRP19070.html"/>
+    <hyperlink ref="A40" r:id="rId34" display="https://distantreading.github.io/ELTeC/srp/SRP19071.html"/>
+    <hyperlink ref="A41" r:id="rId35" display="https://distantreading.github.io/ELTeC/srp/SRP19100.html"/>
+    <hyperlink ref="A42" r:id="rId36" display="https://distantreading.github.io/ELTeC/srp/SRP19110.html"/>
+    <hyperlink ref="A6" r:id="rId37" display="https://distantreading.github.io/ELTeC/srp/SRP19120.html"/>
     <hyperlink ref="A43" r:id="rId38" display="https://distantreading.github.io/ELTeC/srp/SRP19130.html"/>
     <hyperlink ref="A44" r:id="rId39" display="https://distantreading.github.io/ELTeC/srp/SRP19131.html"/>
     <hyperlink ref="A46" r:id="rId40" display="https://distantreading.github.io/ELTeC/srp/SRP19140.html"/>
-    <hyperlink ref="A47" r:id="rId41" display="https://distantreading.github.io/ELTeC/srp/SRP19180.html"/>
-    <hyperlink ref="A48" r:id="rId42" display="https://distantreading.github.io/ELTeC/srp/SRP19190.html"/>
-    <hyperlink ref="A49" r:id="rId43" display="https://distantreading.github.io/ELTeC/srp/SRP19192.html"/>
-    <hyperlink ref="A50" r:id="rId44" display="https://distantreading.github.io/ELTeC/srp/SRP19200.html"/>
-    <hyperlink ref="A2" r:id="rId45" display="SRP18620"/>
-    <hyperlink ref="A15" r:id="rId46" display="SRP18880"/>
-    <hyperlink ref="A22" r:id="rId47" display="SRP18950"/>
-    <hyperlink ref="A25" r:id="rId48" display="SRP18990"/>
-    <hyperlink ref="A28" r:id="rId49" display="https://distantreading.github.io/ELTeC/srp/SRP19000.html"/>
+    <hyperlink ref="A7" r:id="rId41" display="https://distantreading.github.io/ELTeC/srp/SRP19180.html"/>
+    <hyperlink ref="A8" r:id="rId42" display="https://distantreading.github.io/ELTeC/srp/SRP19190.html"/>
+    <hyperlink ref="A47" r:id="rId43" display="https://distantreading.github.io/ELTeC/srp/SRP19192.html"/>
+    <hyperlink ref="A48" r:id="rId44" display="https://distantreading.github.io/ELTeC/srp/SRP19200.html"/>
+    <hyperlink ref="A9" r:id="rId45" display="SRP18620"/>
+    <hyperlink ref="A50" r:id="rId46" display="SRP18880"/>
+    <hyperlink ref="A25" r:id="rId47" display="SRP18950"/>
+    <hyperlink ref="A51" r:id="rId48" display="SRP18990"/>
+    <hyperlink ref="A30" r:id="rId49" display="https://distantreading.github.io/ELTeC/srp/SRP19000.html"/>
     <hyperlink ref="A45" r:id="rId50" display="SRP19140"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/titlePilotStudy/data/SRP.xlsx
+++ b/titlePilotStudy/data/SRP.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAFA8FD-24B1-487B-985C-090D1515645E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,12 +17,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1744,7 +1739,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1967,8 +1962,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2245,16 +2240,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BO325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="BG2" sqref="BG2"/>
+      <selection pane="bottomLeft" activeCell="AX15" sqref="AX15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="10"/>
     <col min="2" max="3" width="8.88671875" style="1"/>
@@ -3984,7 +3980,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:67" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:67" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>39</v>
       </c>
@@ -4740,7 +4736,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="14" spans="1:67" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:67" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>52</v>
       </c>
@@ -4883,16 +4879,16 @@
         <v>237</v>
       </c>
       <c r="AV14" s="3" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="AW14" s="3" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="AX14" s="3" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="AY14" s="3" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="AZ14" s="3" t="s">
         <v>133</v>
@@ -5084,10 +5080,10 @@
         <v>25</v>
       </c>
       <c r="AX15" s="3" t="s">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="AY15" s="3" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="AZ15" s="3" t="s">
         <v>25</v>
@@ -5132,7 +5128,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:67" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:67" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>57</v>
       </c>
@@ -7416,7 +7412,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="28" spans="1:67" ht="144" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:67" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>87</v>
       </c>
@@ -7794,7 +7790,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:67" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:67" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>91</v>
       </c>
@@ -9507,7 +9503,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="39" spans="1:67" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:67" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>105</v>
       </c>
@@ -10263,7 +10259,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:67" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:67" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>116</v>
       </c>
@@ -10454,7 +10450,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44" spans="1:67" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:67" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>118</v>
       </c>
@@ -11965,7 +11961,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="52" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:67" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -12014,7 +12010,7 @@
       <c r="AT52" s="2"/>
       <c r="AU52" s="2"/>
     </row>
-    <row r="53" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:67" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -12063,7 +12059,7 @@
       <c r="AT53" s="2"/>
       <c r="AU53" s="2"/>
     </row>
-    <row r="54" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:67" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -12112,7 +12108,7 @@
       <c r="AT54" s="2"/>
       <c r="AU54" s="2"/>
     </row>
-    <row r="55" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:67" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -12161,7 +12157,7 @@
       <c r="AT55" s="2"/>
       <c r="AU55" s="2"/>
     </row>
-    <row r="56" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:67" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -12210,7 +12206,7 @@
       <c r="AT56" s="2"/>
       <c r="AU56" s="2"/>
     </row>
-    <row r="57" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:67" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -12259,7 +12255,7 @@
       <c r="AT57" s="2"/>
       <c r="AU57" s="2"/>
     </row>
-    <row r="58" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:67" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -12308,7 +12304,7 @@
       <c r="AT58" s="2"/>
       <c r="AU58" s="2"/>
     </row>
-    <row r="59" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:67" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -12357,7 +12353,7 @@
       <c r="AT59" s="2"/>
       <c r="AU59" s="2"/>
     </row>
-    <row r="60" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:67" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -12406,7 +12402,7 @@
       <c r="AT60" s="2"/>
       <c r="AU60" s="2"/>
     </row>
-    <row r="61" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:67" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -12455,7 +12451,7 @@
       <c r="AT61" s="2"/>
       <c r="AU61" s="2"/>
     </row>
-    <row r="62" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:67" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -12504,7 +12500,7 @@
       <c r="AT62" s="2"/>
       <c r="AU62" s="2"/>
     </row>
-    <row r="63" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:67" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -12553,7 +12549,7 @@
       <c r="AT63" s="2"/>
       <c r="AU63" s="2"/>
     </row>
-    <row r="64" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:67" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -12602,7 +12598,7 @@
       <c r="AT64" s="2"/>
       <c r="AU64" s="2"/>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -12651,7 +12647,7 @@
       <c r="AT65" s="2"/>
       <c r="AU65" s="2"/>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -12700,7 +12696,7 @@
       <c r="AT66" s="2"/>
       <c r="AU66" s="2"/>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -12749,7 +12745,7 @@
       <c r="AT67" s="2"/>
       <c r="AU67" s="2"/>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -12798,7 +12794,7 @@
       <c r="AT68" s="2"/>
       <c r="AU68" s="2"/>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -12847,7 +12843,7 @@
       <c r="AT69" s="2"/>
       <c r="AU69" s="2"/>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -12896,7 +12892,7 @@
       <c r="AT70" s="2"/>
       <c r="AU70" s="2"/>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -12945,7 +12941,7 @@
       <c r="AT71" s="2"/>
       <c r="AU71" s="2"/>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -12994,7 +12990,7 @@
       <c r="AT72" s="2"/>
       <c r="AU72" s="2"/>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -13043,7 +13039,7 @@
       <c r="AT73" s="2"/>
       <c r="AU73" s="2"/>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -13092,7 +13088,7 @@
       <c r="AT74" s="2"/>
       <c r="AU74" s="2"/>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -13141,7 +13137,7 @@
       <c r="AT75" s="2"/>
       <c r="AU75" s="2"/>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -13190,7 +13186,7 @@
       <c r="AT76" s="2"/>
       <c r="AU76" s="2"/>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -13239,7 +13235,7 @@
       <c r="AT77" s="2"/>
       <c r="AU77" s="2"/>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -13288,7 +13284,7 @@
       <c r="AT78" s="2"/>
       <c r="AU78" s="2"/>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -13337,7 +13333,7 @@
       <c r="AT79" s="2"/>
       <c r="AU79" s="2"/>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -13386,7 +13382,7 @@
       <c r="AT80" s="2"/>
       <c r="AU80" s="2"/>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -13435,7 +13431,7 @@
       <c r="AT81" s="2"/>
       <c r="AU81" s="2"/>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -13484,7 +13480,7 @@
       <c r="AT82" s="2"/>
       <c r="AU82" s="2"/>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -13533,7 +13529,7 @@
       <c r="AT83" s="2"/>
       <c r="AU83" s="2"/>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -13582,7 +13578,7 @@
       <c r="AT84" s="2"/>
       <c r="AU84" s="2"/>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -13631,7 +13627,7 @@
       <c r="AT85" s="2"/>
       <c r="AU85" s="2"/>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -13680,7 +13676,7 @@
       <c r="AT86" s="2"/>
       <c r="AU86" s="2"/>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -13729,7 +13725,7 @@
       <c r="AT87" s="2"/>
       <c r="AU87" s="2"/>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -13778,7 +13774,7 @@
       <c r="AT88" s="2"/>
       <c r="AU88" s="2"/>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -13827,7 +13823,7 @@
       <c r="AT89" s="2"/>
       <c r="AU89" s="2"/>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -13876,7 +13872,7 @@
       <c r="AT90" s="2"/>
       <c r="AU90" s="2"/>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -13925,7 +13921,7 @@
       <c r="AT91" s="2"/>
       <c r="AU91" s="2"/>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -13974,7 +13970,7 @@
       <c r="AT92" s="2"/>
       <c r="AU92" s="2"/>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -14023,7 +14019,7 @@
       <c r="AT93" s="2"/>
       <c r="AU93" s="2"/>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -14072,7 +14068,7 @@
       <c r="AT94" s="2"/>
       <c r="AU94" s="2"/>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -14121,7 +14117,7 @@
       <c r="AT95" s="2"/>
       <c r="AU95" s="2"/>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -14170,7 +14166,7 @@
       <c r="AT96" s="3"/>
       <c r="AU96" s="3"/>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -14219,7 +14215,7 @@
       <c r="AT97" s="3"/>
       <c r="AU97" s="3"/>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -14268,7 +14264,7 @@
       <c r="AT98" s="3"/>
       <c r="AU98" s="3"/>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -14317,7 +14313,7 @@
       <c r="AT99" s="3"/>
       <c r="AU99" s="3"/>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -14366,7 +14362,7 @@
       <c r="AT100" s="3"/>
       <c r="AU100" s="3"/>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -14415,7 +14411,7 @@
       <c r="AT101" s="3"/>
       <c r="AU101" s="3"/>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -14464,7 +14460,7 @@
       <c r="AT102" s="3"/>
       <c r="AU102" s="3"/>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -14513,7 +14509,7 @@
       <c r="AT103" s="3"/>
       <c r="AU103" s="3"/>
     </row>
-    <row r="104" spans="1:47" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:47" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -14562,7 +14558,7 @@
       <c r="AT104" s="3"/>
       <c r="AU104" s="3"/>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -14611,7 +14607,7 @@
       <c r="AT105" s="3"/>
       <c r="AU105" s="3"/>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -14660,7 +14656,7 @@
       <c r="AT106" s="3"/>
       <c r="AU106" s="3"/>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -14709,7 +14705,7 @@
       <c r="AT107" s="3"/>
       <c r="AU107" s="3"/>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -14758,7 +14754,7 @@
       <c r="AT108" s="3"/>
       <c r="AU108" s="3"/>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -14807,7 +14803,7 @@
       <c r="AT109" s="3"/>
       <c r="AU109" s="3"/>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -14856,7 +14852,7 @@
       <c r="AT110" s="3"/>
       <c r="AU110" s="3"/>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -14905,7 +14901,7 @@
       <c r="AT111" s="3"/>
       <c r="AU111" s="3"/>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -14954,7 +14950,7 @@
       <c r="AT112" s="3"/>
       <c r="AU112" s="3"/>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -15003,7 +14999,7 @@
       <c r="AT113" s="3"/>
       <c r="AU113" s="3"/>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -15052,7 +15048,7 @@
       <c r="AT114" s="3"/>
       <c r="AU114" s="3"/>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -15101,7 +15097,7 @@
       <c r="AT115" s="3"/>
       <c r="AU115" s="3"/>
     </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -15150,7 +15146,7 @@
       <c r="AT116" s="3"/>
       <c r="AU116" s="3"/>
     </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -15199,7 +15195,7 @@
       <c r="AT117" s="3"/>
       <c r="AU117" s="3"/>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -15248,7 +15244,7 @@
       <c r="AT118" s="3"/>
       <c r="AU118" s="3"/>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -15297,7 +15293,7 @@
       <c r="AT119" s="3"/>
       <c r="AU119" s="3"/>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -15346,7 +15342,7 @@
       <c r="AT120" s="3"/>
       <c r="AU120" s="3"/>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -15395,7 +15391,7 @@
       <c r="AT121" s="3"/>
       <c r="AU121" s="3"/>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -15444,7 +15440,7 @@
       <c r="AT122" s="3"/>
       <c r="AU122" s="3"/>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -15493,7 +15489,7 @@
       <c r="AT123" s="3"/>
       <c r="AU123" s="3"/>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -15542,7 +15538,7 @@
       <c r="AT124" s="3"/>
       <c r="AU124" s="3"/>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -15591,7 +15587,7 @@
       <c r="AT125" s="3"/>
       <c r="AU125" s="3"/>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -15640,7 +15636,7 @@
       <c r="AT126" s="3"/>
       <c r="AU126" s="3"/>
     </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -15689,7 +15685,7 @@
       <c r="AT127" s="3"/>
       <c r="AU127" s="3"/>
     </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -15738,7 +15734,7 @@
       <c r="AT128" s="3"/>
       <c r="AU128" s="3"/>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -15787,7 +15783,7 @@
       <c r="AT129" s="3"/>
       <c r="AU129" s="3"/>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -15836,7 +15832,7 @@
       <c r="AT130" s="3"/>
       <c r="AU130" s="3"/>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -15885,7 +15881,7 @@
       <c r="AT131" s="3"/>
       <c r="AU131" s="3"/>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -15934,7 +15930,7 @@
       <c r="AT132" s="3"/>
       <c r="AU132" s="3"/>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -15983,7 +15979,7 @@
       <c r="AT133" s="3"/>
       <c r="AU133" s="3"/>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -16032,7 +16028,7 @@
       <c r="AT134" s="3"/>
       <c r="AU134" s="3"/>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -16081,7 +16077,7 @@
       <c r="AT135" s="3"/>
       <c r="AU135" s="3"/>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -16130,7 +16126,7 @@
       <c r="AT136" s="3"/>
       <c r="AU136" s="3"/>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -16179,7 +16175,7 @@
       <c r="AT137" s="3"/>
       <c r="AU137" s="3"/>
     </row>
-    <row r="138" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -16228,7 +16224,7 @@
       <c r="AT138" s="3"/>
       <c r="AU138" s="3"/>
     </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -16277,7 +16273,7 @@
       <c r="AT139" s="3"/>
       <c r="AU139" s="3"/>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -16326,7 +16322,7 @@
       <c r="AT140" s="3"/>
       <c r="AU140" s="3"/>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -16375,7 +16371,7 @@
       <c r="AT141" s="3"/>
       <c r="AU141" s="3"/>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -16424,7 +16420,7 @@
       <c r="AT142" s="3"/>
       <c r="AU142" s="3"/>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -16473,7 +16469,7 @@
       <c r="AT143" s="3"/>
       <c r="AU143" s="3"/>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -16522,7 +16518,7 @@
       <c r="AT144" s="3"/>
       <c r="AU144" s="3"/>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -16571,7 +16567,7 @@
       <c r="AT145" s="3"/>
       <c r="AU145" s="3"/>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -16620,7 +16616,7 @@
       <c r="AT146" s="3"/>
       <c r="AU146" s="3"/>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -16669,7 +16665,7 @@
       <c r="AT147" s="3"/>
       <c r="AU147" s="3"/>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -16718,7 +16714,7 @@
       <c r="AT148" s="3"/>
       <c r="AU148" s="3"/>
     </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -16767,7 +16763,7 @@
       <c r="AT149" s="3"/>
       <c r="AU149" s="3"/>
     </row>
-    <row r="150" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -16816,7 +16812,7 @@
       <c r="AT150" s="3"/>
       <c r="AU150" s="3"/>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -16865,7 +16861,7 @@
       <c r="AT151" s="3"/>
       <c r="AU151" s="3"/>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -16914,7 +16910,7 @@
       <c r="AT152" s="3"/>
       <c r="AU152" s="3"/>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -16963,7 +16959,7 @@
       <c r="AT153" s="3"/>
       <c r="AU153" s="3"/>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -17012,7 +17008,7 @@
       <c r="AT154" s="3"/>
       <c r="AU154" s="3"/>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -17061,7 +17057,7 @@
       <c r="AT155" s="3"/>
       <c r="AU155" s="3"/>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -17110,7 +17106,7 @@
       <c r="AT156" s="3"/>
       <c r="AU156" s="3"/>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -17159,7 +17155,7 @@
       <c r="AT157" s="3"/>
       <c r="AU157" s="3"/>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -17208,7 +17204,7 @@
       <c r="AT158" s="3"/>
       <c r="AU158" s="3"/>
     </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -17257,7 +17253,7 @@
       <c r="AT159" s="3"/>
       <c r="AU159" s="3"/>
     </row>
-    <row r="160" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -17306,7 +17302,7 @@
       <c r="AT160" s="3"/>
       <c r="AU160" s="3"/>
     </row>
-    <row r="161" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -17355,7 +17351,7 @@
       <c r="AT161" s="3"/>
       <c r="AU161" s="3"/>
     </row>
-    <row r="162" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -17404,7 +17400,7 @@
       <c r="AT162" s="3"/>
       <c r="AU162" s="3"/>
     </row>
-    <row r="163" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -17453,7 +17449,7 @@
       <c r="AT163" s="3"/>
       <c r="AU163" s="3"/>
     </row>
-    <row r="164" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -17502,7 +17498,7 @@
       <c r="AT164" s="3"/>
       <c r="AU164" s="3"/>
     </row>
-    <row r="165" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -17551,7 +17547,7 @@
       <c r="AT165" s="3"/>
       <c r="AU165" s="3"/>
     </row>
-    <row r="166" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -17600,7 +17596,7 @@
       <c r="AT166" s="3"/>
       <c r="AU166" s="3"/>
     </row>
-    <row r="167" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -17649,7 +17645,7 @@
       <c r="AT167" s="3"/>
       <c r="AU167" s="3"/>
     </row>
-    <row r="168" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -17698,7 +17694,7 @@
       <c r="AT168" s="3"/>
       <c r="AU168" s="3"/>
     </row>
-    <row r="169" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -17747,7 +17743,7 @@
       <c r="AT169" s="3"/>
       <c r="AU169" s="3"/>
     </row>
-    <row r="170" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -17796,7 +17792,7 @@
       <c r="AT170" s="3"/>
       <c r="AU170" s="3"/>
     </row>
-    <row r="171" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -17845,7 +17841,7 @@
       <c r="AT171" s="3"/>
       <c r="AU171" s="3"/>
     </row>
-    <row r="172" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -17894,7 +17890,7 @@
       <c r="AT172" s="3"/>
       <c r="AU172" s="3"/>
     </row>
-    <row r="173" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -17943,7 +17939,7 @@
       <c r="AT173" s="3"/>
       <c r="AU173" s="3"/>
     </row>
-    <row r="174" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -17992,7 +17988,7 @@
       <c r="AT174" s="3"/>
       <c r="AU174" s="3"/>
     </row>
-    <row r="175" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -18041,7 +18037,7 @@
       <c r="AT175" s="3"/>
       <c r="AU175" s="3"/>
     </row>
-    <row r="176" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -18090,7 +18086,7 @@
       <c r="AT176" s="3"/>
       <c r="AU176" s="3"/>
     </row>
-    <row r="177" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="8"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -18139,7 +18135,7 @@
       <c r="AT177" s="4"/>
       <c r="AU177" s="4"/>
     </row>
-    <row r="178" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="8"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -18188,7 +18184,7 @@
       <c r="AT178" s="4"/>
       <c r="AU178" s="4"/>
     </row>
-    <row r="179" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="8"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -18237,7 +18233,7 @@
       <c r="AT179" s="4"/>
       <c r="AU179" s="5"/>
     </row>
-    <row r="180" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="8"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -18286,7 +18282,7 @@
       <c r="AT180" s="4"/>
       <c r="AU180" s="4"/>
     </row>
-    <row r="181" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="8"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -18335,7 +18331,7 @@
       <c r="AT181" s="4"/>
       <c r="AU181" s="4"/>
     </row>
-    <row r="182" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="8"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -18384,7 +18380,7 @@
       <c r="AT182" s="4"/>
       <c r="AU182" s="4"/>
     </row>
-    <row r="183" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="8"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -18433,7 +18429,7 @@
       <c r="AT183" s="4"/>
       <c r="AU183" s="4"/>
     </row>
-    <row r="184" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="8"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -18482,7 +18478,7 @@
       <c r="AT184" s="4"/>
       <c r="AU184" s="4"/>
     </row>
-    <row r="185" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="8"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -18531,7 +18527,7 @@
       <c r="AT185" s="4"/>
       <c r="AU185" s="4"/>
     </row>
-    <row r="186" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="8"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -18580,7 +18576,7 @@
       <c r="AT186" s="4"/>
       <c r="AU186" s="4"/>
     </row>
-    <row r="187" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="8"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -18629,7 +18625,7 @@
       <c r="AT187" s="4"/>
       <c r="AU187" s="4"/>
     </row>
-    <row r="188" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="8"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -18678,7 +18674,7 @@
       <c r="AT188" s="4"/>
       <c r="AU188" s="4"/>
     </row>
-    <row r="189" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="8"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -18727,7 +18723,7 @@
       <c r="AT189" s="4"/>
       <c r="AU189" s="4"/>
     </row>
-    <row r="190" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="8"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -18776,7 +18772,7 @@
       <c r="AT190" s="4"/>
       <c r="AU190" s="4"/>
     </row>
-    <row r="191" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="8"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -18825,7 +18821,7 @@
       <c r="AT191" s="4"/>
       <c r="AU191" s="4"/>
     </row>
-    <row r="192" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="8"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -18874,7 +18870,7 @@
       <c r="AT192" s="4"/>
       <c r="AU192" s="4"/>
     </row>
-    <row r="193" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="8"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -18923,7 +18919,7 @@
       <c r="AT193" s="4"/>
       <c r="AU193" s="4"/>
     </row>
-    <row r="194" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="8"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -18972,7 +18968,7 @@
       <c r="AT194" s="4"/>
       <c r="AU194" s="4"/>
     </row>
-    <row r="195" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="8"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -19021,7 +19017,7 @@
       <c r="AT195" s="4"/>
       <c r="AU195" s="4"/>
     </row>
-    <row r="196" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="8"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -19070,7 +19066,7 @@
       <c r="AT196" s="4"/>
       <c r="AU196" s="4"/>
     </row>
-    <row r="197" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="8"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -19119,7 +19115,7 @@
       <c r="AT197" s="4"/>
       <c r="AU197" s="4"/>
     </row>
-    <row r="198" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="8"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -19168,7 +19164,7 @@
       <c r="AT198" s="4"/>
       <c r="AU198" s="4"/>
     </row>
-    <row r="199" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="8"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -19217,7 +19213,7 @@
       <c r="AT199" s="4"/>
       <c r="AU199" s="4"/>
     </row>
-    <row r="200" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="8"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -19266,7 +19262,7 @@
       <c r="AT200" s="4"/>
       <c r="AU200" s="4"/>
     </row>
-    <row r="201" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="8"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -19315,7 +19311,7 @@
       <c r="AT201" s="4"/>
       <c r="AU201" s="4"/>
     </row>
-    <row r="202" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="8"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -19364,7 +19360,7 @@
       <c r="AT202" s="4"/>
       <c r="AU202" s="4"/>
     </row>
-    <row r="203" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="8"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -19413,7 +19409,7 @@
       <c r="AT203" s="4"/>
       <c r="AU203" s="4"/>
     </row>
-    <row r="204" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="8"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -19462,7 +19458,7 @@
       <c r="AT204" s="4"/>
       <c r="AU204" s="4"/>
     </row>
-    <row r="205" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="8"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -19511,7 +19507,7 @@
       <c r="AT205" s="4"/>
       <c r="AU205" s="4"/>
     </row>
-    <row r="206" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="8"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -19560,7 +19556,7 @@
       <c r="AT206" s="4"/>
       <c r="AU206" s="4"/>
     </row>
-    <row r="207" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="8"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -19609,7 +19605,7 @@
       <c r="AT207" s="4"/>
       <c r="AU207" s="4"/>
     </row>
-    <row r="208" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="8"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -19658,7 +19654,7 @@
       <c r="AT208" s="4"/>
       <c r="AU208" s="4"/>
     </row>
-    <row r="209" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="8"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -19707,7 +19703,7 @@
       <c r="AT209" s="4"/>
       <c r="AU209" s="4"/>
     </row>
-    <row r="210" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="8"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -19756,7 +19752,7 @@
       <c r="AT210" s="4"/>
       <c r="AU210" s="4"/>
     </row>
-    <row r="211" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -19805,7 +19801,7 @@
       <c r="AT211" s="3"/>
       <c r="AU211" s="3"/>
     </row>
-    <row r="212" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="9"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -19854,7 +19850,7 @@
       <c r="AT212" s="3"/>
       <c r="AU212" s="3"/>
     </row>
-    <row r="213" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="9"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -19903,7 +19899,7 @@
       <c r="AT213" s="3"/>
       <c r="AU213" s="3"/>
     </row>
-    <row r="214" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="9"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -19952,7 +19948,7 @@
       <c r="AT214" s="3"/>
       <c r="AU214" s="3"/>
     </row>
-    <row r="215" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -20001,7 +19997,7 @@
       <c r="AT215" s="3"/>
       <c r="AU215" s="3"/>
     </row>
-    <row r="216" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="9"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -20050,7 +20046,7 @@
       <c r="AT216" s="3"/>
       <c r="AU216" s="3"/>
     </row>
-    <row r="217" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="9"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -20099,7 +20095,7 @@
       <c r="AT217" s="3"/>
       <c r="AU217" s="3"/>
     </row>
-    <row r="218" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="9"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -20148,7 +20144,7 @@
       <c r="AT218" s="3"/>
       <c r="AU218" s="3"/>
     </row>
-    <row r="219" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -20197,7 +20193,7 @@
       <c r="AT219" s="3"/>
       <c r="AU219" s="3"/>
     </row>
-    <row r="220" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -20246,7 +20242,7 @@
       <c r="AT220" s="3"/>
       <c r="AU220" s="3"/>
     </row>
-    <row r="221" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="9"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -20295,7 +20291,7 @@
       <c r="AT221" s="3"/>
       <c r="AU221" s="3"/>
     </row>
-    <row r="222" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="9"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -20344,7 +20340,7 @@
       <c r="AT222" s="3"/>
       <c r="AU222" s="3"/>
     </row>
-    <row r="223" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="9"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -20393,7 +20389,7 @@
       <c r="AT223" s="3"/>
       <c r="AU223" s="3"/>
     </row>
-    <row r="224" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="9"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -20442,7 +20438,7 @@
       <c r="AT224" s="3"/>
       <c r="AU224" s="3"/>
     </row>
-    <row r="225" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="9"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -20491,7 +20487,7 @@
       <c r="AT225" s="3"/>
       <c r="AU225" s="3"/>
     </row>
-    <row r="226" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -20540,7 +20536,7 @@
       <c r="AT226" s="3"/>
       <c r="AU226" s="3"/>
     </row>
-    <row r="227" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -20589,7 +20585,7 @@
       <c r="AT227" s="3"/>
       <c r="AU227" s="3"/>
     </row>
-    <row r="228" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="9"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -20638,7 +20634,7 @@
       <c r="AT228" s="3"/>
       <c r="AU228" s="3"/>
     </row>
-    <row r="229" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="9"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -20687,7 +20683,7 @@
       <c r="AT229" s="3"/>
       <c r="AU229" s="3"/>
     </row>
-    <row r="230" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="9"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -20736,7 +20732,7 @@
       <c r="AT230" s="3"/>
       <c r="AU230" s="3"/>
     </row>
-    <row r="231" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -20785,7 +20781,7 @@
       <c r="AT231" s="3"/>
       <c r="AU231" s="3"/>
     </row>
-    <row r="232" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="9"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -20834,7 +20830,7 @@
       <c r="AT232" s="3"/>
       <c r="AU232" s="3"/>
     </row>
-    <row r="233" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="9"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -20883,7 +20879,7 @@
       <c r="AT233" s="3"/>
       <c r="AU233" s="3"/>
     </row>
-    <row r="234" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="9"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -20932,7 +20928,7 @@
       <c r="AT234" s="3"/>
       <c r="AU234" s="3"/>
     </row>
-    <row r="235" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="9"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -20981,7 +20977,7 @@
       <c r="AT235" s="3"/>
       <c r="AU235" s="3"/>
     </row>
-    <row r="236" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="9"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -21030,7 +21026,7 @@
       <c r="AT236" s="3"/>
       <c r="AU236" s="3"/>
     </row>
-    <row r="237" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="9"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -21079,7 +21075,7 @@
       <c r="AT237" s="3"/>
       <c r="AU237" s="3"/>
     </row>
-    <row r="238" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="9"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -21128,7 +21124,7 @@
       <c r="AT238" s="3"/>
       <c r="AU238" s="3"/>
     </row>
-    <row r="239" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -21177,7 +21173,7 @@
       <c r="AT239" s="3"/>
       <c r="AU239" s="3"/>
     </row>
-    <row r="240" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="9"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -21226,7 +21222,7 @@
       <c r="AT240" s="3"/>
       <c r="AU240" s="3"/>
     </row>
-    <row r="241" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="9"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -21275,7 +21271,7 @@
       <c r="AT241" s="3"/>
       <c r="AU241" s="3"/>
     </row>
-    <row r="242" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="9"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -21324,7 +21320,7 @@
       <c r="AT242" s="3"/>
       <c r="AU242" s="3"/>
     </row>
-    <row r="243" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="9"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -21373,7 +21369,7 @@
       <c r="AT243" s="3"/>
       <c r="AU243" s="3"/>
     </row>
-    <row r="244" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="9"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -21422,7 +21418,7 @@
       <c r="AT244" s="3"/>
       <c r="AU244" s="3"/>
     </row>
-    <row r="245" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="9"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -21471,7 +21467,7 @@
       <c r="AT245" s="3"/>
       <c r="AU245" s="3"/>
     </row>
-    <row r="246" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="9"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -21520,7 +21516,7 @@
       <c r="AT246" s="3"/>
       <c r="AU246" s="3"/>
     </row>
-    <row r="247" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="9"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -21569,7 +21565,7 @@
       <c r="AT247" s="3"/>
       <c r="AU247" s="3"/>
     </row>
-    <row r="248" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="9"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -21618,7 +21614,7 @@
       <c r="AT248" s="3"/>
       <c r="AU248" s="3"/>
     </row>
-    <row r="249" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="9"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -21667,7 +21663,7 @@
       <c r="AT249" s="3"/>
       <c r="AU249" s="3"/>
     </row>
-    <row r="250" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="9"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -21716,7 +21712,7 @@
       <c r="AT250" s="3"/>
       <c r="AU250" s="3"/>
     </row>
-    <row r="251" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="9"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -21765,7 +21761,7 @@
       <c r="AT251" s="3"/>
       <c r="AU251" s="3"/>
     </row>
-    <row r="252" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="9"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -21814,7 +21810,7 @@
       <c r="AT252" s="3"/>
       <c r="AU252" s="3"/>
     </row>
-    <row r="253" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="9"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -21863,7 +21859,7 @@
       <c r="AT253" s="3"/>
       <c r="AU253" s="3"/>
     </row>
-    <row r="254" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="9"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -21912,7 +21908,7 @@
       <c r="AT254" s="3"/>
       <c r="AU254" s="3"/>
     </row>
-    <row r="255" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="9"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -21961,7 +21957,7 @@
       <c r="AT255" s="3"/>
       <c r="AU255" s="3"/>
     </row>
-    <row r="256" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="9"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -22010,7 +22006,7 @@
       <c r="AT256" s="3"/>
       <c r="AU256" s="3"/>
     </row>
-    <row r="257" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="9"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -22059,7 +22055,7 @@
       <c r="AT257" s="3"/>
       <c r="AU257" s="3"/>
     </row>
-    <row r="258" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="9"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -22108,7 +22104,7 @@
       <c r="AT258" s="3"/>
       <c r="AU258" s="3"/>
     </row>
-    <row r="259" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="9"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -22157,7 +22153,7 @@
       <c r="AT259" s="3"/>
       <c r="AU259" s="3"/>
     </row>
-    <row r="260" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="9"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -22206,7 +22202,7 @@
       <c r="AT260" s="3"/>
       <c r="AU260" s="3"/>
     </row>
-    <row r="261" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="9"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -22255,7 +22251,7 @@
       <c r="AT261" s="3"/>
       <c r="AU261" s="3"/>
     </row>
-    <row r="262" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="9"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -22304,7 +22300,7 @@
       <c r="AT262" s="3"/>
       <c r="AU262" s="3"/>
     </row>
-    <row r="263" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="9"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -22353,7 +22349,7 @@
       <c r="AT263" s="3"/>
       <c r="AU263" s="3"/>
     </row>
-    <row r="264" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="9"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -22402,7 +22398,7 @@
       <c r="AT264" s="3"/>
       <c r="AU264" s="3"/>
     </row>
-    <row r="265" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="9"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -22451,7 +22447,7 @@
       <c r="AT265" s="3"/>
       <c r="AU265" s="3"/>
     </row>
-    <row r="266" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="9"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -22500,7 +22496,7 @@
       <c r="AT266" s="3"/>
       <c r="AU266" s="3"/>
     </row>
-    <row r="267" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="9"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -22549,7 +22545,7 @@
       <c r="AT267" s="3"/>
       <c r="AU267" s="3"/>
     </row>
-    <row r="268" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="9"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -22598,7 +22594,7 @@
       <c r="AT268" s="3"/>
       <c r="AU268" s="3"/>
     </row>
-    <row r="269" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="9"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -22647,7 +22643,7 @@
       <c r="AT269" s="3"/>
       <c r="AU269" s="3"/>
     </row>
-    <row r="270" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="9"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -22696,7 +22692,7 @@
       <c r="AT270" s="3"/>
       <c r="AU270" s="3"/>
     </row>
-    <row r="271" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="9"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -22745,7 +22741,7 @@
       <c r="AT271" s="3"/>
       <c r="AU271" s="3"/>
     </row>
-    <row r="272" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="9"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -22794,7 +22790,7 @@
       <c r="AT272" s="3"/>
       <c r="AU272" s="3"/>
     </row>
-    <row r="273" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="9"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -22843,7 +22839,7 @@
       <c r="AT273" s="3"/>
       <c r="AU273" s="3"/>
     </row>
-    <row r="274" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="9"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -22892,7 +22888,7 @@
       <c r="AT274" s="3"/>
       <c r="AU274" s="3"/>
     </row>
-    <row r="275" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="9"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -22941,7 +22937,7 @@
       <c r="AT275" s="3"/>
       <c r="AU275" s="3"/>
     </row>
-    <row r="276" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="9"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -22990,7 +22986,7 @@
       <c r="AT276" s="3"/>
       <c r="AU276" s="3"/>
     </row>
-    <row r="277" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="9"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -23039,7 +23035,7 @@
       <c r="AT277" s="3"/>
       <c r="AU277" s="3"/>
     </row>
-    <row r="278" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="9"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -23088,7 +23084,7 @@
       <c r="AT278" s="3"/>
       <c r="AU278" s="3"/>
     </row>
-    <row r="279" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="9"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -23137,7 +23133,7 @@
       <c r="AT279" s="3"/>
       <c r="AU279" s="3"/>
     </row>
-    <row r="280" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="8"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -23186,7 +23182,7 @@
       <c r="AT280" s="4"/>
       <c r="AU280" s="4"/>
     </row>
-    <row r="281" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="8"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -23235,7 +23231,7 @@
       <c r="AT281" s="4"/>
       <c r="AU281" s="4"/>
     </row>
-    <row r="282" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="8"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -23284,7 +23280,7 @@
       <c r="AT282" s="4"/>
       <c r="AU282" s="4"/>
     </row>
-    <row r="283" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="8"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -23333,7 +23329,7 @@
       <c r="AT283" s="4"/>
       <c r="AU283" s="4"/>
     </row>
-    <row r="284" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="8"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -23382,7 +23378,7 @@
       <c r="AT284" s="4"/>
       <c r="AU284" s="4"/>
     </row>
-    <row r="285" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="8"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -23431,7 +23427,7 @@
       <c r="AT285" s="4"/>
       <c r="AU285" s="4"/>
     </row>
-    <row r="286" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="8"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -23480,7 +23476,7 @@
       <c r="AT286" s="4"/>
       <c r="AU286" s="4"/>
     </row>
-    <row r="287" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="8"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -23529,7 +23525,7 @@
       <c r="AT287" s="4"/>
       <c r="AU287" s="4"/>
     </row>
-    <row r="288" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="8"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -23578,7 +23574,7 @@
       <c r="AT288" s="4"/>
       <c r="AU288" s="4"/>
     </row>
-    <row r="289" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="8"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -23627,7 +23623,7 @@
       <c r="AT289" s="4"/>
       <c r="AU289" s="4"/>
     </row>
-    <row r="290" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="8"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -23676,7 +23672,7 @@
       <c r="AT290" s="4"/>
       <c r="AU290" s="4"/>
     </row>
-    <row r="291" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="8"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -23725,7 +23721,7 @@
       <c r="AT291" s="4"/>
       <c r="AU291" s="4"/>
     </row>
-    <row r="292" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="8"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -23774,7 +23770,7 @@
       <c r="AT292" s="4"/>
       <c r="AU292" s="4"/>
     </row>
-    <row r="293" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="8"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -23823,7 +23819,7 @@
       <c r="AT293" s="4"/>
       <c r="AU293" s="4"/>
     </row>
-    <row r="294" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="8"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -23872,7 +23868,7 @@
       <c r="AT294" s="4"/>
       <c r="AU294" s="4"/>
     </row>
-    <row r="295" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="8"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -23921,7 +23917,7 @@
       <c r="AT295" s="4"/>
       <c r="AU295" s="4"/>
     </row>
-    <row r="296" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="8"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -23970,7 +23966,7 @@
       <c r="AT296" s="4"/>
       <c r="AU296" s="4"/>
     </row>
-    <row r="297" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="8"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -24019,7 +24015,7 @@
       <c r="AT297" s="4"/>
       <c r="AU297" s="4"/>
     </row>
-    <row r="298" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="8"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -24068,7 +24064,7 @@
       <c r="AT298" s="4"/>
       <c r="AU298" s="4"/>
     </row>
-    <row r="299" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="8"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -24117,7 +24113,7 @@
       <c r="AT299" s="4"/>
       <c r="AU299" s="4"/>
     </row>
-    <row r="300" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="8"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -24166,7 +24162,7 @@
       <c r="AT300" s="4"/>
       <c r="AU300" s="4"/>
     </row>
-    <row r="301" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="8"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -24215,7 +24211,7 @@
       <c r="AT301" s="4"/>
       <c r="AU301" s="4"/>
     </row>
-    <row r="302" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="8"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -24264,7 +24260,7 @@
       <c r="AT302" s="4"/>
       <c r="AU302" s="4"/>
     </row>
-    <row r="303" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="8"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -24313,7 +24309,7 @@
       <c r="AT303" s="4"/>
       <c r="AU303" s="4"/>
     </row>
-    <row r="304" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="8"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -24362,7 +24358,7 @@
       <c r="AT304" s="4"/>
       <c r="AU304" s="4"/>
     </row>
-    <row r="305" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="8"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -24411,7 +24407,7 @@
       <c r="AT305" s="4"/>
       <c r="AU305" s="4"/>
     </row>
-    <row r="306" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="8"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -24460,7 +24456,7 @@
       <c r="AT306" s="4"/>
       <c r="AU306" s="4"/>
     </row>
-    <row r="307" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="8"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -24509,7 +24505,7 @@
       <c r="AT307" s="4"/>
       <c r="AU307" s="4"/>
     </row>
-    <row r="308" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="8"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -24558,7 +24554,7 @@
       <c r="AT308" s="4"/>
       <c r="AU308" s="4"/>
     </row>
-    <row r="309" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="8"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -24607,7 +24603,7 @@
       <c r="AT309" s="4"/>
       <c r="AU309" s="4"/>
     </row>
-    <row r="310" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="8"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -24656,7 +24652,7 @@
       <c r="AT310" s="4"/>
       <c r="AU310" s="4"/>
     </row>
-    <row r="311" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="8"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -24705,7 +24701,7 @@
       <c r="AT311" s="4"/>
       <c r="AU311" s="4"/>
     </row>
-    <row r="312" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="8"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -24754,7 +24750,7 @@
       <c r="AT312" s="4"/>
       <c r="AU312" s="4"/>
     </row>
-    <row r="313" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="8"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -24803,7 +24799,7 @@
       <c r="AT313" s="4"/>
       <c r="AU313" s="4"/>
     </row>
-    <row r="314" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="8"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -24852,7 +24848,7 @@
       <c r="AT314" s="4"/>
       <c r="AU314" s="4"/>
     </row>
-    <row r="315" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="8"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -24901,7 +24897,7 @@
       <c r="AT315" s="4"/>
       <c r="AU315" s="4"/>
     </row>
-    <row r="316" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="8"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -24950,7 +24946,7 @@
       <c r="AT316" s="4"/>
       <c r="AU316" s="4"/>
     </row>
-    <row r="317" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="8"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -24999,7 +24995,7 @@
       <c r="AT317" s="4"/>
       <c r="AU317" s="4"/>
     </row>
-    <row r="318" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="8"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -25048,7 +25044,7 @@
       <c r="AT318" s="4"/>
       <c r="AU318" s="4"/>
     </row>
-    <row r="319" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="8"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -25097,7 +25093,7 @@
       <c r="AT319" s="4"/>
       <c r="AU319" s="4"/>
     </row>
-    <row r="320" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="8"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -25146,7 +25142,7 @@
       <c r="AT320" s="4"/>
       <c r="AU320" s="4"/>
     </row>
-    <row r="321" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="8"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -25195,7 +25191,7 @@
       <c r="AT321" s="4"/>
       <c r="AU321" s="4"/>
     </row>
-    <row r="322" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="8"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -25244,7 +25240,7 @@
       <c r="AT322" s="4"/>
       <c r="AU322" s="4"/>
     </row>
-    <row r="323" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="8"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -25293,7 +25289,7 @@
       <c r="AT323" s="4"/>
       <c r="AU323" s="4"/>
     </row>
-    <row r="324" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="8"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -25342,7 +25338,7 @@
       <c r="AT324" s="4"/>
       <c r="AU324" s="4"/>
     </row>
-    <row r="325" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:47" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="8"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -25392,87 +25388,93 @@
       <c r="AU325" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BO325"/>
-  <sortState ref="A2:BO51">
+  <autoFilter ref="A1:BO325" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="57">
+      <filters>
+        <filter val="no"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BO51">
     <sortCondition ref="J2:J51"/>
   </sortState>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L280:L325 AU2:AU3 AM2:AM9 AD10 AM11:AM50 AX10:AY10 AC52:AC1048576 R52:R1048576 Z52:Z1048576 P52:P1048576 T52:T1048576 P1:P50 R1:R50 T1:T50 Z1:Z50 AC1:AC50 AM52:AM325 AJ10:AM10 AQ7 AQ28 AR1:AR325 AI1:AI325 W1:W325 N1:N325 L1:L244 AT1:AT325">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L280:L325 AU2:AU3 AM2:AM9 AD10 AM11:AM50 AX10:AY10 AC52:AC1048576 R52:R1048576 Z52:Z1048576 P52:P1048576 T52:T1048576 P1:P50 R1:R50 T1:T50 Z1:Z50 AC1:AC50 AM52:AM325 AJ10:AM10 AQ7 AQ28 AR1:AR325 AI1:AI325 W1:W325 N1:N325 L1:L244 AT1:AT325" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX1:AX9 AX52:AX1048576 AX11:AX50 BJ1:BJ50 BJ52:BJ1048576 BH9 BF1:BF1048576 AV1:AV1048576 AZ1:AZ1048576 BB1:BB1048576 BD1:BD1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX1:AX9 AX52:AX1048576 BJ1:BJ50 BJ52:BJ1048576 BH9 BF1:BF1048576 AZ1:AZ1048576 BB1:BB1048576 BD1:BD1048576 AV1:AV1048576 AX11:AX13 AX15:AX50" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"existence,possessor,possessum,patient,location,agens,attribute,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY9 BK52:BK1048576 BJ51:BK51 AY11:AY50 AY52:AY1048576 BK2:BK50 BI9 BG1:BG1048576 AW1:AW1048576 BE1:BE1048576 BC1:BC1048576 BA1:BA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY9 BK52:BK1048576 BJ51:BK51 AY52:AY1048576 BK2:BK50 BI9 BG1:BG1048576 BE1:BE1048576 BC1:BC1048576 BA1:BA1048576 AW1:AW1048576 AY11:AY13 AY15:AY50" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"head,apposition,pregen,postgen,prepmod,adjective,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD9 AL1:AL9 AD52:AD1048576 P51:T51 Z51:AE51 S1:S50 S52:S1048576 AD11:AD50 AL11:AL50 AL52:AL1048576 AP7 AP28 AH1:AH1048576 X1:X1048576 O1:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1:AD9 AL1:AL9 AD52:AD1048576 P51:T51 Z51:AE51 S1:S50 S52:S1048576 AD11:AD50 AL11:AL50 AL52:AL1048576 AP7 AP28 AH1:AH1048576 X1:X1048576 O1:O1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"def,indef,no,na"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1:AJ9 AX51:AY51 AK51:AM51 AN7 AN28 AJ11:AJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1:AJ9 AX51:AY51 AK51:AM51 AN7 AN28 AJ11:AJ1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"more,one,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE50 AE52:AE1048576 Y1:Y1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE1:AE50 AE52:AE1048576 Y1:Y1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"m,f,d,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF1:AF1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF1:AF1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"one,more,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS1:AS1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS1:AS1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"interpunc,word,mixed,no"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" display="https://distantreading.github.io/ELTeC/srp/SRP18620.html"/>
-    <hyperlink ref="A11" r:id="rId2" display="https://distantreading.github.io/ELTeC/srp/SRP18630.html"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://distantreading.github.io/ELTeC/srp/SRP18750.html"/>
-    <hyperlink ref="A13" r:id="rId4" display="https://distantreading.github.io/ELTeC/srp/SRP18760.html"/>
-    <hyperlink ref="A14" r:id="rId5" display="https://distantreading.github.io/ELTeC/srp/SRP18790.html"/>
-    <hyperlink ref="A15" r:id="rId6" display="https://distantreading.github.io/ELTeC/srp/SRP18800.html"/>
-    <hyperlink ref="A16" r:id="rId7" display="https://distantreading.github.io/ELTeC/srp/SRP18810.html"/>
-    <hyperlink ref="A17" r:id="rId8" display="https://distantreading.github.io/ELTeC/srp/SRP18822.html"/>
-    <hyperlink ref="A2" r:id="rId9" display="https://distantreading.github.io/ELTeC/srp/SRP18840.html"/>
-    <hyperlink ref="A3" r:id="rId10" display="https://distantreading.github.io/ELTeC/srp/SRP18870.html"/>
-    <hyperlink ref="A18" r:id="rId11" display="https://distantreading.github.io/ELTeC/srp/SRP18871.html"/>
-    <hyperlink ref="A19" r:id="rId12" display="https://distantreading.github.io/ELTeC/srp/SRP18880.html"/>
-    <hyperlink ref="A4" r:id="rId13" display="https://distantreading.github.io/ELTeC/srp/SRP18890.html"/>
-    <hyperlink ref="A20" r:id="rId14" display="https://distantreading.github.io/ELTeC/srp/SRP18910.html"/>
-    <hyperlink ref="A21" r:id="rId15" display="https://distantreading.github.io/ELTeC/srp/SRP18920.html"/>
-    <hyperlink ref="A22" r:id="rId16" display="https://distantreading.github.io/ELTeC/srp/SRP18930.html"/>
-    <hyperlink ref="A49" r:id="rId17" display="https://distantreading.github.io/ELTeC/srp/SRP18931.html"/>
-    <hyperlink ref="A23" r:id="rId18" display="https://distantreading.github.io/ELTeC/srp/SRP18932.html"/>
-    <hyperlink ref="A24" r:id="rId19" display="https://distantreading.github.io/ELTeC/srp/SRP18940.html"/>
-    <hyperlink ref="A26" r:id="rId20" display="https://distantreading.github.io/ELTeC/srp/SRP18950.html"/>
-    <hyperlink ref="A27" r:id="rId21" display="https://distantreading.github.io/ELTeC/srp/SRP18960.html"/>
-    <hyperlink ref="A28" r:id="rId22" display="https://distantreading.github.io/ELTeC/srp/SRP18990.html"/>
-    <hyperlink ref="A29" r:id="rId23" display="https://distantreading.github.io/ELTeC/srp/SRP18991.html"/>
-    <hyperlink ref="A31" r:id="rId24" display="https://distantreading.github.io/ELTeC/srp/SRP19000.html"/>
-    <hyperlink ref="A32" r:id="rId25" display="https://distantreading.github.io/ELTeC/srp/SRP19020.html"/>
-    <hyperlink ref="A33" r:id="rId26" display="https://distantreading.github.io/ELTeC/srp/SRP19021.html"/>
-    <hyperlink ref="A34" r:id="rId27" display="https://distantreading.github.io/ELTeC/srp/SRP19022.html"/>
-    <hyperlink ref="A35" r:id="rId28" display="https://distantreading.github.io/ELTeC/srp/SRP19030.html"/>
-    <hyperlink ref="A36" r:id="rId29" display="https://distantreading.github.io/ELTeC/srp/SRP19040.html"/>
-    <hyperlink ref="A37" r:id="rId30" display="https://distantreading.github.io/ELTeC/srp/SRP19050.html"/>
-    <hyperlink ref="A38" r:id="rId31" display="https://distantreading.github.io/ELTeC/srp/SRP19051.html"/>
-    <hyperlink ref="A39" r:id="rId32" display="https://distantreading.github.io/ELTeC/srp/SRP19060.html"/>
-    <hyperlink ref="A5" r:id="rId33" display="https://distantreading.github.io/ELTeC/srp/SRP19070.html"/>
-    <hyperlink ref="A40" r:id="rId34" display="https://distantreading.github.io/ELTeC/srp/SRP19071.html"/>
-    <hyperlink ref="A41" r:id="rId35" display="https://distantreading.github.io/ELTeC/srp/SRP19100.html"/>
-    <hyperlink ref="A42" r:id="rId36" display="https://distantreading.github.io/ELTeC/srp/SRP19110.html"/>
-    <hyperlink ref="A6" r:id="rId37" display="https://distantreading.github.io/ELTeC/srp/SRP19120.html"/>
-    <hyperlink ref="A43" r:id="rId38" display="https://distantreading.github.io/ELTeC/srp/SRP19130.html"/>
-    <hyperlink ref="A44" r:id="rId39" display="https://distantreading.github.io/ELTeC/srp/SRP19131.html"/>
-    <hyperlink ref="A46" r:id="rId40" display="https://distantreading.github.io/ELTeC/srp/SRP19140.html"/>
-    <hyperlink ref="A7" r:id="rId41" display="https://distantreading.github.io/ELTeC/srp/SRP19180.html"/>
-    <hyperlink ref="A8" r:id="rId42" display="https://distantreading.github.io/ELTeC/srp/SRP19190.html"/>
-    <hyperlink ref="A47" r:id="rId43" display="https://distantreading.github.io/ELTeC/srp/SRP19192.html"/>
-    <hyperlink ref="A48" r:id="rId44" display="https://distantreading.github.io/ELTeC/srp/SRP19200.html"/>
-    <hyperlink ref="A9" r:id="rId45" display="SRP18620"/>
-    <hyperlink ref="A50" r:id="rId46" display="SRP18880"/>
-    <hyperlink ref="A25" r:id="rId47" display="SRP18950"/>
-    <hyperlink ref="A51" r:id="rId48" display="SRP18990"/>
-    <hyperlink ref="A30" r:id="rId49" display="https://distantreading.github.io/ELTeC/srp/SRP19000.html"/>
-    <hyperlink ref="A45" r:id="rId50" display="SRP19140"/>
+    <hyperlink ref="A10" r:id="rId1" display="https://distantreading.github.io/ELTeC/srp/SRP18620.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A11" r:id="rId2" display="https://distantreading.github.io/ELTeC/srp/SRP18630.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://distantreading.github.io/ELTeC/srp/SRP18750.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A13" r:id="rId4" display="https://distantreading.github.io/ELTeC/srp/SRP18760.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A14" r:id="rId5" display="https://distantreading.github.io/ELTeC/srp/SRP18790.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A15" r:id="rId6" display="https://distantreading.github.io/ELTeC/srp/SRP18800.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A16" r:id="rId7" display="https://distantreading.github.io/ELTeC/srp/SRP18810.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A17" r:id="rId8" display="https://distantreading.github.io/ELTeC/srp/SRP18822.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A2" r:id="rId9" display="https://distantreading.github.io/ELTeC/srp/SRP18840.html" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A3" r:id="rId10" display="https://distantreading.github.io/ELTeC/srp/SRP18870.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A18" r:id="rId11" display="https://distantreading.github.io/ELTeC/srp/SRP18871.html" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A19" r:id="rId12" display="https://distantreading.github.io/ELTeC/srp/SRP18880.html" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A4" r:id="rId13" display="https://distantreading.github.io/ELTeC/srp/SRP18890.html" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A20" r:id="rId14" display="https://distantreading.github.io/ELTeC/srp/SRP18910.html" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A21" r:id="rId15" display="https://distantreading.github.io/ELTeC/srp/SRP18920.html" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A22" r:id="rId16" display="https://distantreading.github.io/ELTeC/srp/SRP18930.html" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A49" r:id="rId17" display="https://distantreading.github.io/ELTeC/srp/SRP18931.html" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A23" r:id="rId18" display="https://distantreading.github.io/ELTeC/srp/SRP18932.html" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A24" r:id="rId19" display="https://distantreading.github.io/ELTeC/srp/SRP18940.html" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A26" r:id="rId20" display="https://distantreading.github.io/ELTeC/srp/SRP18950.html" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A27" r:id="rId21" display="https://distantreading.github.io/ELTeC/srp/SRP18960.html" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A28" r:id="rId22" display="https://distantreading.github.io/ELTeC/srp/SRP18990.html" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A29" r:id="rId23" display="https://distantreading.github.io/ELTeC/srp/SRP18991.html" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A31" r:id="rId24" display="https://distantreading.github.io/ELTeC/srp/SRP19000.html" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A32" r:id="rId25" display="https://distantreading.github.io/ELTeC/srp/SRP19020.html" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A33" r:id="rId26" display="https://distantreading.github.io/ELTeC/srp/SRP19021.html" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A34" r:id="rId27" display="https://distantreading.github.io/ELTeC/srp/SRP19022.html" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A35" r:id="rId28" display="https://distantreading.github.io/ELTeC/srp/SRP19030.html" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A36" r:id="rId29" display="https://distantreading.github.io/ELTeC/srp/SRP19040.html" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A37" r:id="rId30" display="https://distantreading.github.io/ELTeC/srp/SRP19050.html" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A38" r:id="rId31" display="https://distantreading.github.io/ELTeC/srp/SRP19051.html" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A39" r:id="rId32" display="https://distantreading.github.io/ELTeC/srp/SRP19060.html" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A5" r:id="rId33" display="https://distantreading.github.io/ELTeC/srp/SRP19070.html" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A40" r:id="rId34" display="https://distantreading.github.io/ELTeC/srp/SRP19071.html" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A41" r:id="rId35" display="https://distantreading.github.io/ELTeC/srp/SRP19100.html" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A42" r:id="rId36" display="https://distantreading.github.io/ELTeC/srp/SRP19110.html" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A6" r:id="rId37" display="https://distantreading.github.io/ELTeC/srp/SRP19120.html" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A43" r:id="rId38" display="https://distantreading.github.io/ELTeC/srp/SRP19130.html" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A44" r:id="rId39" display="https://distantreading.github.io/ELTeC/srp/SRP19131.html" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A46" r:id="rId40" display="https://distantreading.github.io/ELTeC/srp/SRP19140.html" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A7" r:id="rId41" display="https://distantreading.github.io/ELTeC/srp/SRP19180.html" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A8" r:id="rId42" display="https://distantreading.github.io/ELTeC/srp/SRP19190.html" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A47" r:id="rId43" display="https://distantreading.github.io/ELTeC/srp/SRP19192.html" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A48" r:id="rId44" display="https://distantreading.github.io/ELTeC/srp/SRP19200.html" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A9" r:id="rId45" display="SRP18620" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A50" r:id="rId46" display="SRP18880" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A25" r:id="rId47" display="SRP18950" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A51" r:id="rId48" display="SRP18990" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A30" r:id="rId49" display="https://distantreading.github.io/ELTeC/srp/SRP19000.html" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A45" r:id="rId50" display="SRP19140" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId51"/>
